--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_100ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_100ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -4677,28 +4677,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>26632.67901767365</v>
+        <v>27552.62918999249</v>
       </c>
       <c r="AB2" t="n">
-        <v>36440.0063828578</v>
+        <v>37698.72279396175</v>
       </c>
       <c r="AC2" t="n">
-        <v>32962.22331754649</v>
+        <v>34100.80960099421</v>
       </c>
       <c r="AD2" t="n">
-        <v>26632679.01767365</v>
+        <v>27552629.18999249</v>
       </c>
       <c r="AE2" t="n">
-        <v>36440006.3828578</v>
+        <v>37698722.79396175</v>
       </c>
       <c r="AF2" t="n">
         <v>8.599708229239388e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>183</v>
+        <v>182.5291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>32962223.31754649</v>
+        <v>34100809.60099421</v>
       </c>
     </row>
     <row r="3">
@@ -4783,28 +4783,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>9016.159804978024</v>
+        <v>9505.483372239099</v>
       </c>
       <c r="AB3" t="n">
-        <v>12336.3076100694</v>
+        <v>13005.82170222826</v>
       </c>
       <c r="AC3" t="n">
-        <v>11158.94772588038</v>
+        <v>11764.56433275251</v>
       </c>
       <c r="AD3" t="n">
-        <v>9016159.804978024</v>
+        <v>9505483.3722391</v>
       </c>
       <c r="AE3" t="n">
-        <v>12336307.6100694</v>
+        <v>13005821.70222826</v>
       </c>
       <c r="AF3" t="n">
         <v>1.623133717029896e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>97</v>
+        <v>96.7</v>
       </c>
       <c r="AH3" t="n">
-        <v>11158947.72588038</v>
+        <v>11764564.33275251</v>
       </c>
     </row>
     <row r="4">
@@ -4889,28 +4889,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>6948.693263995441</v>
+        <v>7359.675506704807</v>
       </c>
       <c r="AB4" t="n">
-        <v>9507.50867851037</v>
+        <v>10069.83271424226</v>
       </c>
       <c r="AC4" t="n">
-        <v>8600.125394105218</v>
+        <v>9108.78201309358</v>
       </c>
       <c r="AD4" t="n">
-        <v>6948693.263995442</v>
+        <v>7359675.506704807</v>
       </c>
       <c r="AE4" t="n">
-        <v>9507508.67851037</v>
+        <v>10069832.71424226</v>
       </c>
       <c r="AF4" t="n">
         <v>1.904893758881454e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>83</v>
+        <v>82.39999999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>8600125.394105218</v>
+        <v>9108782.01309358</v>
       </c>
     </row>
     <row r="5">
@@ -4995,28 +4995,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>6137.095259561343</v>
+        <v>6518.711938459663</v>
       </c>
       <c r="AB5" t="n">
-        <v>8397.044483666617</v>
+        <v>8919.189259474997</v>
       </c>
       <c r="AC5" t="n">
-        <v>7595.642343471111</v>
+        <v>8067.954354711112</v>
       </c>
       <c r="AD5" t="n">
-        <v>6137095.259561343</v>
+        <v>6518711.938459663</v>
       </c>
       <c r="AE5" t="n">
-        <v>8397044.483666617</v>
+        <v>8919189.259474996</v>
       </c>
       <c r="AF5" t="n">
         <v>2.05368415531376e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>77</v>
+        <v>76.42083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>7595642.343471111</v>
+        <v>8067954.354711112</v>
       </c>
     </row>
     <row r="6">
@@ -5101,28 +5101,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>5687.605014615163</v>
+        <v>6049.678816391568</v>
       </c>
       <c r="AB6" t="n">
-        <v>7782.032100421151</v>
+        <v>8277.437449580433</v>
       </c>
       <c r="AC6" t="n">
-        <v>7039.325878907313</v>
+        <v>7487.45043684859</v>
       </c>
       <c r="AD6" t="n">
-        <v>5687605.014615163</v>
+        <v>6049678.816391568</v>
       </c>
       <c r="AE6" t="n">
-        <v>7782032.100421151</v>
+        <v>8277437.449580433</v>
       </c>
       <c r="AF6" t="n">
         <v>2.147478607748303e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>74</v>
+        <v>73.08749999999999</v>
       </c>
       <c r="AH6" t="n">
-        <v>7039325.878907314</v>
+        <v>7487450.43684859</v>
       </c>
     </row>
     <row r="7">
@@ -5207,28 +5207,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>5383.508159370788</v>
+        <v>5745.580950117334</v>
       </c>
       <c r="AB7" t="n">
-        <v>7365.953367269361</v>
+        <v>7861.357333092988</v>
       </c>
       <c r="AC7" t="n">
-        <v>6662.957116077377</v>
+        <v>7111.08042270661</v>
       </c>
       <c r="AD7" t="n">
-        <v>5383508.159370788</v>
+        <v>5745580.950117335</v>
       </c>
       <c r="AE7" t="n">
-        <v>7365953.367269361</v>
+        <v>7861357.333092988</v>
       </c>
       <c r="AF7" t="n">
         <v>2.211138296348454e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>71</v>
+        <v>70.98333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>6662957.116077377</v>
+        <v>7111080.422706611</v>
       </c>
     </row>
     <row r="8">
@@ -5313,28 +5313,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>5168.177241765334</v>
+        <v>5520.394191433827</v>
       </c>
       <c r="AB8" t="n">
-        <v>7071.328106071933</v>
+        <v>7553.246875323546</v>
       </c>
       <c r="AC8" t="n">
-        <v>6396.45047629949</v>
+        <v>6832.375594590951</v>
       </c>
       <c r="AD8" t="n">
-        <v>5168177.241765333</v>
+        <v>5520394.191433827</v>
       </c>
       <c r="AE8" t="n">
-        <v>7071328.106071933</v>
+        <v>7553246.875323546</v>
       </c>
       <c r="AF8" t="n">
         <v>2.258600549387621e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>70</v>
+        <v>69.48333333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>6396450.47629949</v>
+        <v>6832375.594590951</v>
       </c>
     </row>
     <row r="9">
@@ -5419,28 +5419,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>5001.881413864084</v>
+        <v>5344.344007681009</v>
       </c>
       <c r="AB9" t="n">
-        <v>6843.794817883283</v>
+        <v>7312.367247126972</v>
       </c>
       <c r="AC9" t="n">
-        <v>6190.632645790598</v>
+        <v>6614.485180032786</v>
       </c>
       <c r="AD9" t="n">
-        <v>5001881.413864084</v>
+        <v>5344344.007681009</v>
       </c>
       <c r="AE9" t="n">
-        <v>6843794.817883283</v>
+        <v>7312367.247126972</v>
       </c>
       <c r="AF9" t="n">
         <v>2.29400889689303e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>69</v>
+        <v>68.42083333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>6190632.645790598</v>
+        <v>6614485.180032786</v>
       </c>
     </row>
     <row r="10">
@@ -5525,28 +5525,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>4864.703997942432</v>
+        <v>5207.233911567063</v>
       </c>
       <c r="AB10" t="n">
-        <v>6656.102625578797</v>
+        <v>7124.767164753327</v>
       </c>
       <c r="AC10" t="n">
-        <v>6020.853532892013</v>
+        <v>6444.789386222521</v>
       </c>
       <c r="AD10" t="n">
-        <v>4864703.997942432</v>
+        <v>5207233.911567063</v>
       </c>
       <c r="AE10" t="n">
-        <v>6656102.625578796</v>
+        <v>7124767.164753327</v>
       </c>
       <c r="AF10" t="n">
         <v>2.321130184343982e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>68</v>
+        <v>67.6125</v>
       </c>
       <c r="AH10" t="n">
-        <v>6020853.532892013</v>
+        <v>6444789.386222521</v>
       </c>
     </row>
     <row r="11">
@@ -5631,28 +5631,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>4733.143919666426</v>
+        <v>5075.639667872276</v>
       </c>
       <c r="AB11" t="n">
-        <v>6476.096322460529</v>
+        <v>6944.714115001812</v>
       </c>
       <c r="AC11" t="n">
-        <v>5858.026778702926</v>
+        <v>6281.920346833253</v>
       </c>
       <c r="AD11" t="n">
-        <v>4733143.919666426</v>
+        <v>5075639.667872276</v>
       </c>
       <c r="AE11" t="n">
-        <v>6476096.322460529</v>
+        <v>6944714.115001813</v>
       </c>
       <c r="AF11" t="n">
         <v>2.345237995411495e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>67</v>
+        <v>66.92916666666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>5858026.778702926</v>
+        <v>6281920.346833252</v>
       </c>
     </row>
     <row r="12">
@@ -5737,28 +5737,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>4638.901542632308</v>
+        <v>4971.575615178886</v>
       </c>
       <c r="AB12" t="n">
-        <v>6347.149744522201</v>
+        <v>6802.329087124716</v>
       </c>
       <c r="AC12" t="n">
-        <v>5741.386681185377</v>
+        <v>6153.124346178112</v>
       </c>
       <c r="AD12" t="n">
-        <v>4638901.542632308</v>
+        <v>4971575.615178886</v>
       </c>
       <c r="AE12" t="n">
-        <v>6347149.744522201</v>
+        <v>6802329.087124716</v>
       </c>
       <c r="AF12" t="n">
         <v>2.36181211552041e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>67</v>
+        <v>66.45</v>
       </c>
       <c r="AH12" t="n">
-        <v>5741386.681185377</v>
+        <v>6153124.346178113</v>
       </c>
     </row>
     <row r="13">
@@ -5843,28 +5843,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>4523.007711911125</v>
+        <v>4855.749104265407</v>
       </c>
       <c r="AB13" t="n">
-        <v>6188.578692454506</v>
+        <v>6643.850144987865</v>
       </c>
       <c r="AC13" t="n">
-        <v>5597.949427771162</v>
+        <v>6009.770411852214</v>
       </c>
       <c r="AD13" t="n">
-        <v>4523007.711911125</v>
+        <v>4855749.104265408</v>
       </c>
       <c r="AE13" t="n">
-        <v>6188578.692454507</v>
+        <v>6643850.144987865</v>
       </c>
       <c r="AF13" t="n">
         <v>2.379516289273115e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>66</v>
+        <v>65.95833333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>5597949.427771162</v>
+        <v>6009770.411852214</v>
       </c>
     </row>
     <row r="14">
@@ -5949,28 +5949,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>4434.15544386874</v>
+        <v>4766.896836223023</v>
       </c>
       <c r="AB14" t="n">
-        <v>6067.007099433493</v>
+        <v>6522.278551966851</v>
       </c>
       <c r="AC14" t="n">
-        <v>5487.980456961275</v>
+        <v>5899.80144104233</v>
       </c>
       <c r="AD14" t="n">
-        <v>4434155.44386874</v>
+        <v>4766896.836223023</v>
       </c>
       <c r="AE14" t="n">
-        <v>6067007.099433493</v>
+        <v>6522278.551966852</v>
       </c>
       <c r="AF14" t="n">
         <v>2.393076932998591e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>66</v>
+        <v>65.58333333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>5487980.456961275</v>
+        <v>5899801.44104233</v>
       </c>
     </row>
     <row r="15">
@@ -6055,28 +6055,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>4363.330662175169</v>
+        <v>4686.25037887018</v>
       </c>
       <c r="AB15" t="n">
-        <v>5970.101508551499</v>
+        <v>6411.934511146091</v>
       </c>
       <c r="AC15" t="n">
-        <v>5400.323399665211</v>
+        <v>5799.988480608672</v>
       </c>
       <c r="AD15" t="n">
-        <v>4363330.662175169</v>
+        <v>4686250.37887018</v>
       </c>
       <c r="AE15" t="n">
-        <v>5970101.508551499</v>
+        <v>6411934.511146091</v>
       </c>
       <c r="AF15" t="n">
         <v>2.402494046696838e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>66</v>
+        <v>65.33333333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>5400323.39966521</v>
+        <v>5799988.480608672</v>
       </c>
     </row>
     <row r="16">
@@ -6161,28 +6161,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>4334.320945360023</v>
+        <v>4657.240662055035</v>
       </c>
       <c r="AB16" t="n">
-        <v>5930.409134186632</v>
+        <v>6372.242136781225</v>
       </c>
       <c r="AC16" t="n">
-        <v>5364.419209801132</v>
+        <v>5764.084290744592</v>
       </c>
       <c r="AD16" t="n">
-        <v>4334320.945360023</v>
+        <v>4657240.662055034</v>
       </c>
       <c r="AE16" t="n">
-        <v>5930409.134186632</v>
+        <v>6372242.136781225</v>
       </c>
       <c r="AF16" t="n">
         <v>2.407014261271997e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>66</v>
+        <v>65.20416666666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>5364419.209801132</v>
+        <v>5764084.290744592</v>
       </c>
     </row>
     <row r="17">
@@ -6267,28 +6267,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>4332.414521745976</v>
+        <v>4655.334238440987</v>
       </c>
       <c r="AB17" t="n">
-        <v>5927.800681292419</v>
+        <v>6369.63368388701</v>
       </c>
       <c r="AC17" t="n">
-        <v>5362.059703990156</v>
+        <v>5761.724784933616</v>
       </c>
       <c r="AD17" t="n">
-        <v>4332414.521745976</v>
+        <v>4655334.238440987</v>
       </c>
       <c r="AE17" t="n">
-        <v>5927800.681292418</v>
+        <v>6369633.68388701</v>
       </c>
       <c r="AF17" t="n">
         <v>2.408520999463717e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>66</v>
+        <v>65.16666666666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>5362059.703990156</v>
+        <v>5761724.784933616</v>
       </c>
     </row>
     <row r="18">
@@ -6373,28 +6373,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>4348.673749590657</v>
+        <v>4671.593466285669</v>
       </c>
       <c r="AB18" t="n">
-        <v>5950.047274136021</v>
+        <v>6391.880276730613</v>
       </c>
       <c r="AC18" t="n">
-        <v>5382.183113236053</v>
+        <v>5781.848194179514</v>
       </c>
       <c r="AD18" t="n">
-        <v>4348673.749590658</v>
+        <v>4671593.466285669</v>
       </c>
       <c r="AE18" t="n">
-        <v>5950047.274136021</v>
+        <v>6391880.276730614</v>
       </c>
       <c r="AF18" t="n">
         <v>2.408520999463717e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>66</v>
+        <v>65.16666666666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>5382183.113236053</v>
+        <v>5781848.194179514</v>
       </c>
     </row>
   </sheetData>
@@ -6670,28 +6670,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>16199.60286620967</v>
+        <v>16915.72535641606</v>
       </c>
       <c r="AB2" t="n">
-        <v>22165.01131758849</v>
+        <v>23144.84170178347</v>
       </c>
       <c r="AC2" t="n">
-        <v>20049.61374622577</v>
+        <v>20935.93049375373</v>
       </c>
       <c r="AD2" t="n">
-        <v>16199602.86620967</v>
+        <v>16915725.35641606</v>
       </c>
       <c r="AE2" t="n">
-        <v>22165011.31758849</v>
+        <v>23144841.70178347</v>
       </c>
       <c r="AF2" t="n">
         <v>1.196919152617267e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>144</v>
+        <v>143.4916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>20049613.74622577</v>
+        <v>20935930.49375373</v>
       </c>
     </row>
     <row r="3">
@@ -6776,28 +6776,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>7138.858855459813</v>
+        <v>7584.061620108446</v>
       </c>
       <c r="AB3" t="n">
-        <v>9767.701630265732</v>
+        <v>10376.84769381781</v>
       </c>
       <c r="AC3" t="n">
-        <v>8835.485895728141</v>
+        <v>9386.495913916657</v>
       </c>
       <c r="AD3" t="n">
-        <v>7138858.855459813</v>
+        <v>7584061.620108446</v>
       </c>
       <c r="AE3" t="n">
-        <v>9767701.630265731</v>
+        <v>10376847.69381781</v>
       </c>
       <c r="AF3" t="n">
         <v>1.93839902712087e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>89</v>
+        <v>88.58750000000002</v>
       </c>
       <c r="AH3" t="n">
-        <v>8835485.895728141</v>
+        <v>9386495.913916657</v>
       </c>
     </row>
     <row r="4">
@@ -6882,28 +6882,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>5739.39401941131</v>
+        <v>6126.547654578075</v>
       </c>
       <c r="AB4" t="n">
-        <v>7852.892101552886</v>
+        <v>8382.61278520102</v>
       </c>
       <c r="AC4" t="n">
-        <v>7103.42310098367</v>
+        <v>7582.587986052053</v>
       </c>
       <c r="AD4" t="n">
-        <v>5739394.019411311</v>
+        <v>6126547.654578075</v>
       </c>
       <c r="AE4" t="n">
-        <v>7852892.101552886</v>
+        <v>8382612.785201019</v>
       </c>
       <c r="AF4" t="n">
         <v>2.207128809320064e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>78</v>
+        <v>77.80833333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>7103423.10098367</v>
+        <v>7582587.986052053</v>
       </c>
     </row>
     <row r="5">
@@ -6988,28 +6988,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>5152.669284077717</v>
+        <v>5510.748117405233</v>
       </c>
       <c r="AB5" t="n">
-        <v>7050.109434200927</v>
+        <v>7540.048691282869</v>
       </c>
       <c r="AC5" t="n">
-        <v>6377.256884691262</v>
+        <v>6820.43702671135</v>
       </c>
       <c r="AD5" t="n">
-        <v>5152669.284077717</v>
+        <v>5510748.117405233</v>
       </c>
       <c r="AE5" t="n">
-        <v>7050109.434200928</v>
+        <v>7540048.691282869</v>
       </c>
       <c r="AF5" t="n">
         <v>2.347676134059213e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>74</v>
+        <v>73.14583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>6377256.884691262</v>
+        <v>6820437.02671135</v>
       </c>
     </row>
     <row r="6">
@@ -7094,28 +7094,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>4800.897599757412</v>
+        <v>5149.363203742523</v>
       </c>
       <c r="AB6" t="n">
-        <v>6568.799896642426</v>
+        <v>7045.585909232344</v>
       </c>
       <c r="AC6" t="n">
-        <v>5941.882853875183</v>
+        <v>6373.165078596873</v>
       </c>
       <c r="AD6" t="n">
-        <v>4800897.599757412</v>
+        <v>5149363.203742523</v>
       </c>
       <c r="AE6" t="n">
-        <v>6568799.896642426</v>
+        <v>7045585.909232344</v>
       </c>
       <c r="AF6" t="n">
         <v>2.435054529498215e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>71</v>
+        <v>70.52499999999999</v>
       </c>
       <c r="AH6" t="n">
-        <v>5941882.853875184</v>
+        <v>6373165.078596873</v>
       </c>
     </row>
     <row r="7">
@@ -7200,28 +7200,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>4557.389835130513</v>
+        <v>4905.787108278064</v>
       </c>
       <c r="AB7" t="n">
-        <v>6235.6218302755</v>
+        <v>6712.314349598922</v>
       </c>
       <c r="AC7" t="n">
-        <v>5640.502834543975</v>
+        <v>6071.700488865305</v>
       </c>
       <c r="AD7" t="n">
-        <v>4557389.835130514</v>
+        <v>4905787.108278064</v>
       </c>
       <c r="AE7" t="n">
-        <v>6235621.830275499</v>
+        <v>6712314.349598922</v>
       </c>
       <c r="AF7" t="n">
         <v>2.49481805468055e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>69</v>
+        <v>68.83750000000001</v>
       </c>
       <c r="AH7" t="n">
-        <v>5640502.834543975</v>
+        <v>6071700.488865305</v>
       </c>
     </row>
     <row r="8">
@@ -7306,28 +7306,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>4373.447914770633</v>
+        <v>4712.198804186854</v>
       </c>
       <c r="AB8" t="n">
-        <v>5983.944379894294</v>
+        <v>6447.438291428099</v>
       </c>
       <c r="AC8" t="n">
-        <v>5412.845126795642</v>
+        <v>5832.103829930431</v>
       </c>
       <c r="AD8" t="n">
-        <v>4373447.914770633</v>
+        <v>4712198.804186855</v>
       </c>
       <c r="AE8" t="n">
-        <v>5983944.379894294</v>
+        <v>6447438.291428098</v>
       </c>
       <c r="AF8" t="n">
         <v>2.538507252400051e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>68</v>
+        <v>67.65416666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>5412845.126795641</v>
+        <v>5832103.829930431</v>
       </c>
     </row>
     <row r="9">
@@ -7412,28 +7412,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>4217.082018901365</v>
+        <v>4555.798742898808</v>
       </c>
       <c r="AB9" t="n">
-        <v>5769.997662789488</v>
+        <v>6233.444827690045</v>
       </c>
       <c r="AC9" t="n">
-        <v>5219.317184095223</v>
+        <v>5638.533602029834</v>
       </c>
       <c r="AD9" t="n">
-        <v>4217082.018901365</v>
+        <v>4555798.742898808</v>
       </c>
       <c r="AE9" t="n">
-        <v>5769997.662789487</v>
+        <v>6233444.827690044</v>
       </c>
       <c r="AF9" t="n">
         <v>2.571892394053632e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>67</v>
+        <v>66.77499999999999</v>
       </c>
       <c r="AH9" t="n">
-        <v>5219317.184095223</v>
+        <v>5638533.602029834</v>
       </c>
     </row>
     <row r="10">
@@ -7518,28 +7518,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>4086.912285170757</v>
+        <v>4415.915305629167</v>
       </c>
       <c r="AB10" t="n">
-        <v>5591.893690415905</v>
+        <v>6042.050137596003</v>
       </c>
       <c r="AC10" t="n">
-        <v>5058.211204874487</v>
+        <v>5465.40535253424</v>
       </c>
       <c r="AD10" t="n">
-        <v>4086912.285170757</v>
+        <v>4415915.305629167</v>
       </c>
       <c r="AE10" t="n">
-        <v>5591893.690415905</v>
+        <v>6042050.137596003</v>
       </c>
       <c r="AF10" t="n">
         <v>2.597034290854477e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>67</v>
+        <v>66.12916666666668</v>
       </c>
       <c r="AH10" t="n">
-        <v>5058211.204874487</v>
+        <v>5465405.35253424</v>
       </c>
     </row>
     <row r="11">
@@ -7624,28 +7624,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>3973.964179629899</v>
+        <v>4303.034519896014</v>
       </c>
       <c r="AB11" t="n">
-        <v>5437.353109496154</v>
+        <v>5887.601666607093</v>
       </c>
       <c r="AC11" t="n">
-        <v>4918.419760098655</v>
+        <v>5325.697226846727</v>
       </c>
       <c r="AD11" t="n">
-        <v>3973964.179629899</v>
+        <v>4303034.519896014</v>
       </c>
       <c r="AE11" t="n">
-        <v>5437353.109496154</v>
+        <v>5887601.666607093</v>
       </c>
       <c r="AF11" t="n">
         <v>2.61599375401577e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>66</v>
+        <v>65.64583333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>4918419.760098656</v>
+        <v>5325697.226846727</v>
       </c>
     </row>
     <row r="12">
@@ -7730,28 +7730,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>3957.030097367124</v>
+        <v>4286.100437633238</v>
       </c>
       <c r="AB12" t="n">
-        <v>5414.183151065242</v>
+        <v>5864.43170817618</v>
       </c>
       <c r="AC12" t="n">
-        <v>4897.461109981148</v>
+        <v>5304.738576729222</v>
       </c>
       <c r="AD12" t="n">
-        <v>3957030.097367124</v>
+        <v>4286100.437633238</v>
       </c>
       <c r="AE12" t="n">
-        <v>5414183.151065242</v>
+        <v>5864431.70817618</v>
       </c>
       <c r="AF12" t="n">
         <v>2.620115376442138e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>66</v>
+        <v>65.54583333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>4897461.109981149</v>
+        <v>5304738.576729221</v>
       </c>
     </row>
     <row r="13">
@@ -7836,28 +7836,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>3969.692549221245</v>
+        <v>4298.76288948736</v>
       </c>
       <c r="AB13" t="n">
-        <v>5431.508476320001</v>
+        <v>5881.757033430939</v>
       </c>
       <c r="AC13" t="n">
-        <v>4913.132930509841</v>
+        <v>5320.410397257913</v>
       </c>
       <c r="AD13" t="n">
-        <v>3969692.549221246</v>
+        <v>4298762.88948736</v>
       </c>
       <c r="AE13" t="n">
-        <v>5431508.476320001</v>
+        <v>5881757.03343094</v>
       </c>
       <c r="AF13" t="n">
         <v>2.619291051956864e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>66</v>
+        <v>65.55833333333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>4913132.930509841</v>
+        <v>5320410.397257913</v>
       </c>
     </row>
   </sheetData>
@@ -8133,28 +8133,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5466.339949224828</v>
+        <v>5905.877774927927</v>
       </c>
       <c r="AB2" t="n">
-        <v>7479.287476428326</v>
+        <v>8080.682520595661</v>
       </c>
       <c r="AC2" t="n">
-        <v>6765.474776923626</v>
+        <v>7309.473522138855</v>
       </c>
       <c r="AD2" t="n">
-        <v>5466339.949224828</v>
+        <v>5905877.774927927</v>
       </c>
       <c r="AE2" t="n">
-        <v>7479287.476428326</v>
+        <v>8080682.520595661</v>
       </c>
       <c r="AF2" t="n">
         <v>2.62274316158003e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>92</v>
+        <v>91.39583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>6765474.776923627</v>
+        <v>7309473.522138854</v>
       </c>
     </row>
     <row r="3">
@@ -8239,28 +8239,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3625.670940914023</v>
+        <v>3971.72228005742</v>
       </c>
       <c r="AB3" t="n">
-        <v>4960.802934671825</v>
+        <v>5434.285643595459</v>
       </c>
       <c r="AC3" t="n">
-        <v>4487.350865117206</v>
+        <v>4915.645048838307</v>
       </c>
       <c r="AD3" t="n">
-        <v>3625670.940914023</v>
+        <v>3971722.28005742</v>
       </c>
       <c r="AE3" t="n">
-        <v>4960802.934671825</v>
+        <v>5434285.643595459</v>
       </c>
       <c r="AF3" t="n">
         <v>3.28202450906209e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>74</v>
+        <v>73.03333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>4487350.865117206</v>
+        <v>4915645.048838307</v>
       </c>
     </row>
     <row r="4">
@@ -8345,28 +8345,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3125.780207571016</v>
+        <v>3453.187903042665</v>
       </c>
       <c r="AB4" t="n">
-        <v>4276.830379689195</v>
+        <v>4724.804032841633</v>
       </c>
       <c r="AC4" t="n">
-        <v>3868.655690820635</v>
+        <v>4273.875367251158</v>
       </c>
       <c r="AD4" t="n">
-        <v>3125780.207571017</v>
+        <v>3453187.903042665</v>
       </c>
       <c r="AE4" t="n">
-        <v>4276830.379689195</v>
+        <v>4724804.032841633</v>
       </c>
       <c r="AF4" t="n">
         <v>3.497182645151349e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>69</v>
+        <v>68.54583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>3868655.690820635</v>
+        <v>4273875.367251158</v>
       </c>
     </row>
     <row r="5">
@@ -8451,28 +8451,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3101.9705449095</v>
+        <v>3429.276755154663</v>
       </c>
       <c r="AB5" t="n">
-        <v>4244.252948827525</v>
+        <v>4692.087745415873</v>
       </c>
       <c r="AC5" t="n">
-        <v>3839.187404237692</v>
+        <v>4244.281476379715</v>
       </c>
       <c r="AD5" t="n">
-        <v>3101970.544909501</v>
+        <v>3429276.755154663</v>
       </c>
       <c r="AE5" t="n">
-        <v>4244252.948827525</v>
+        <v>4692087.745415873</v>
       </c>
       <c r="AF5" t="n">
         <v>3.515591897437061e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>69</v>
+        <v>68.17916666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>3839187.404237692</v>
+        <v>4244281.476379715</v>
       </c>
     </row>
   </sheetData>
@@ -8748,28 +8748,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>8063.507509802032</v>
+        <v>8584.912205193248</v>
       </c>
       <c r="AB2" t="n">
-        <v>11032.84671175646</v>
+        <v>11746.25561874247</v>
       </c>
       <c r="AC2" t="n">
-        <v>9979.887306283617</v>
+        <v>10625.20946846255</v>
       </c>
       <c r="AD2" t="n">
-        <v>8063507.509802032</v>
+        <v>8584912.205193248</v>
       </c>
       <c r="AE2" t="n">
-        <v>11032846.71175646</v>
+        <v>11746255.61874247</v>
       </c>
       <c r="AF2" t="n">
         <v>1.963904185285965e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>106</v>
+        <v>105.6875</v>
       </c>
       <c r="AH2" t="n">
-        <v>9979887.306283617</v>
+        <v>10625209.46846255</v>
       </c>
     </row>
     <row r="3">
@@ -8854,28 +8854,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4758.557262013094</v>
+        <v>5137.724416506984</v>
       </c>
       <c r="AB3" t="n">
-        <v>6510.867978616779</v>
+        <v>7029.661207069625</v>
       </c>
       <c r="AC3" t="n">
-        <v>5889.479876797948</v>
+        <v>6358.760207658104</v>
       </c>
       <c r="AD3" t="n">
-        <v>4758557.262013094</v>
+        <v>5137724.416506984</v>
       </c>
       <c r="AE3" t="n">
-        <v>6510867.978616779</v>
+        <v>7029661.207069624</v>
       </c>
       <c r="AF3" t="n">
         <v>2.660885909084815e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>79</v>
+        <v>78.01666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>5889479.876797948</v>
+        <v>6358760.207658105</v>
       </c>
     </row>
     <row r="4">
@@ -8960,28 +8960,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>4028.932700625637</v>
+        <v>4379.719464541795</v>
       </c>
       <c r="AB4" t="n">
-        <v>5512.563464962524</v>
+        <v>5992.525390972449</v>
       </c>
       <c r="AC4" t="n">
-        <v>4986.452144797707</v>
+        <v>5420.607178220021</v>
       </c>
       <c r="AD4" t="n">
-        <v>4028932.700625637</v>
+        <v>4379719.464541795</v>
       </c>
       <c r="AE4" t="n">
-        <v>5512563.464962523</v>
+        <v>5992525.390972449</v>
       </c>
       <c r="AF4" t="n">
         <v>2.903011082613222e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>72</v>
+        <v>71.50833333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>4986452.144797707</v>
+        <v>5420607.178220021</v>
       </c>
     </row>
     <row r="5">
@@ -9066,28 +9066,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3652.09195505209</v>
+        <v>3983.846258903586</v>
       </c>
       <c r="AB5" t="n">
-        <v>4996.95333182841</v>
+        <v>5450.874206324982</v>
       </c>
       <c r="AC5" t="n">
-        <v>4520.051119106565</v>
+        <v>4930.650422423118</v>
       </c>
       <c r="AD5" t="n">
-        <v>3652091.95505209</v>
+        <v>3983846.258903586</v>
       </c>
       <c r="AE5" t="n">
-        <v>4996953.33182841</v>
+        <v>5450874.206324982</v>
       </c>
       <c r="AF5" t="n">
         <v>3.030550268669337e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>69</v>
+        <v>68.49166666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>4520051.119106566</v>
+        <v>4930650.422423119</v>
       </c>
     </row>
     <row r="6">
@@ -9172,28 +9172,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3416.710328484163</v>
+        <v>3748.497786724583</v>
       </c>
       <c r="AB6" t="n">
-        <v>4674.893806053676</v>
+        <v>5128.860043847844</v>
       </c>
       <c r="AC6" t="n">
-        <v>4228.728502458403</v>
+        <v>4639.368839663094</v>
       </c>
       <c r="AD6" t="n">
-        <v>3416710.328484163</v>
+        <v>3748497.786724582</v>
       </c>
       <c r="AE6" t="n">
-        <v>4674893.806053676</v>
+        <v>5128860.043847844</v>
       </c>
       <c r="AF6" t="n">
         <v>3.100298261043775e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>67</v>
+        <v>66.95833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>4228728.502458403</v>
+        <v>4639368.839663094</v>
       </c>
     </row>
     <row r="7">
@@ -9278,28 +9278,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3390.924830925014</v>
+        <v>3722.712289165433</v>
       </c>
       <c r="AB7" t="n">
-        <v>4639.61295071738</v>
+        <v>5093.579188511547</v>
       </c>
       <c r="AC7" t="n">
-        <v>4196.814802438412</v>
+        <v>4607.455139643102</v>
       </c>
       <c r="AD7" t="n">
-        <v>3390924.830925014</v>
+        <v>3722712.289165433</v>
       </c>
       <c r="AE7" t="n">
-        <v>4639612.95071738</v>
+        <v>5093579.188511547</v>
       </c>
       <c r="AF7" t="n">
         <v>3.111258659845473e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>67</v>
+        <v>66.71666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>4196814.802438412</v>
+        <v>4607455.139643103</v>
       </c>
     </row>
     <row r="8">
@@ -9384,28 +9384,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>3407.97659157165</v>
+        <v>3739.76404981207</v>
       </c>
       <c r="AB8" t="n">
-        <v>4662.943921904698</v>
+        <v>5116.910159698865</v>
       </c>
       <c r="AC8" t="n">
-        <v>4217.919098480834</v>
+        <v>4628.559435685525</v>
       </c>
       <c r="AD8" t="n">
-        <v>3407976.59157165</v>
+        <v>3739764.04981207</v>
       </c>
       <c r="AE8" t="n">
-        <v>4662943.921904698</v>
+        <v>5116910.159698864</v>
       </c>
       <c r="AF8" t="n">
         <v>3.111258659845473e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>67</v>
+        <v>66.71666666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>4217919.098480834</v>
+        <v>4628559.435685526</v>
       </c>
     </row>
   </sheetData>
@@ -9681,28 +9681,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3973.622911615483</v>
+        <v>4371.32387257976</v>
       </c>
       <c r="AB2" t="n">
-        <v>5436.88617154315</v>
+        <v>5981.038171662614</v>
       </c>
       <c r="AC2" t="n">
-        <v>4917.997386048533</v>
+        <v>5410.216282998706</v>
       </c>
       <c r="AD2" t="n">
-        <v>3973622.911615483</v>
+        <v>4371323.87257976</v>
       </c>
       <c r="AE2" t="n">
-        <v>5436886.17154315</v>
+        <v>5981038.171662615</v>
       </c>
       <c r="AF2" t="n">
         <v>3.327521914062243e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>83</v>
+        <v>82.5125</v>
       </c>
       <c r="AH2" t="n">
-        <v>4917997.386048533</v>
+        <v>5410216.282998705</v>
       </c>
     </row>
     <row r="3">
@@ -9787,28 +9787,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2887.394326080219</v>
+        <v>3220.303430317331</v>
       </c>
       <c r="AB3" t="n">
-        <v>3950.660299790618</v>
+        <v>4406.16122312099</v>
       </c>
       <c r="AC3" t="n">
-        <v>3573.614825565007</v>
+        <v>3985.643380072273</v>
       </c>
       <c r="AD3" t="n">
-        <v>2887394.326080219</v>
+        <v>3220303.430317331</v>
       </c>
       <c r="AE3" t="n">
-        <v>3950660.299790618</v>
+        <v>4406161.22312099</v>
       </c>
       <c r="AF3" t="n">
         <v>3.901437079834166e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>71</v>
+        <v>70.36666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>3573614.825565008</v>
+        <v>3985643.380072273</v>
       </c>
     </row>
     <row r="4">
@@ -9893,28 +9893,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2888.07423771494</v>
+        <v>3220.983341952052</v>
       </c>
       <c r="AB4" t="n">
-        <v>3951.590584884827</v>
+        <v>4407.091508215199</v>
       </c>
       <c r="AC4" t="n">
-        <v>3574.456325555489</v>
+        <v>3986.484880062753</v>
       </c>
       <c r="AD4" t="n">
-        <v>2888074.23771494</v>
+        <v>3220983.341952052</v>
       </c>
       <c r="AE4" t="n">
-        <v>3951590.584884827</v>
+        <v>4407091.508215198</v>
       </c>
       <c r="AF4" t="n">
         <v>3.913956469213806e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>71</v>
+        <v>70.15000000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>3574456.325555488</v>
+        <v>3986484.880062753</v>
       </c>
     </row>
   </sheetData>
@@ -10190,28 +10190,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>18229.40789329546</v>
+        <v>18986.56767012883</v>
       </c>
       <c r="AB2" t="n">
-        <v>24942.2801043252</v>
+        <v>25978.25951452052</v>
       </c>
       <c r="AC2" t="n">
-        <v>22561.82389787745</v>
+        <v>23498.93088716992</v>
       </c>
       <c r="AD2" t="n">
-        <v>18229407.89329546</v>
+        <v>18986567.67012883</v>
       </c>
       <c r="AE2" t="n">
-        <v>24942280.1043252</v>
+        <v>25978259.51452052</v>
       </c>
       <c r="AF2" t="n">
         <v>1.104456169933047e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>152</v>
+        <v>151.7541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>22561823.89787745</v>
+        <v>23498930.88716992</v>
       </c>
     </row>
     <row r="3">
@@ -10296,28 +10296,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>7578.949734498652</v>
+        <v>8035.166887087168</v>
       </c>
       <c r="AB3" t="n">
-        <v>10369.85338640601</v>
+        <v>10994.06982145794</v>
       </c>
       <c r="AC3" t="n">
-        <v>9380.16913338767</v>
+        <v>9944.811227971488</v>
       </c>
       <c r="AD3" t="n">
-        <v>7578949.734498652</v>
+        <v>8035166.887087168</v>
       </c>
       <c r="AE3" t="n">
-        <v>10369853.38640601</v>
+        <v>10994069.82145794</v>
       </c>
       <c r="AF3" t="n">
         <v>1.851753898897214e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>91</v>
+        <v>90.50416666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>9380169.13338767</v>
+        <v>9944811.227971489</v>
       </c>
     </row>
     <row r="4">
@@ -10402,28 +10402,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>6029.323066846455</v>
+        <v>6427.28664724201</v>
       </c>
       <c r="AB4" t="n">
-        <v>8249.585815020517</v>
+        <v>8794.09714263181</v>
       </c>
       <c r="AC4" t="n">
-        <v>7462.256923201058</v>
+        <v>7954.800853931556</v>
       </c>
       <c r="AD4" t="n">
-        <v>6029323.066846455</v>
+        <v>6427286.64724201</v>
       </c>
       <c r="AE4" t="n">
-        <v>8249585.815020517</v>
+        <v>8794097.14263181</v>
       </c>
       <c r="AF4" t="n">
         <v>2.12364478413929e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>79</v>
+        <v>78.90833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>7462256.923201058</v>
+        <v>7954800.853931556</v>
       </c>
     </row>
     <row r="5">
@@ -10508,28 +10508,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>5387.551961927427</v>
+        <v>5766.063519506549</v>
       </c>
       <c r="AB5" t="n">
-        <v>7371.48627632733</v>
+        <v>7889.382488158496</v>
       </c>
       <c r="AC5" t="n">
-        <v>6667.96197206034</v>
+        <v>7136.430896306217</v>
       </c>
       <c r="AD5" t="n">
-        <v>5387551.961927427</v>
+        <v>5766063.519506549</v>
       </c>
       <c r="AE5" t="n">
-        <v>7371486.276327331</v>
+        <v>7889382.488158496</v>
       </c>
       <c r="AF5" t="n">
         <v>2.266427719436534e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>74</v>
+        <v>73.95</v>
       </c>
       <c r="AH5" t="n">
-        <v>6667961.97206034</v>
+        <v>7136430.896306217</v>
       </c>
     </row>
     <row r="6">
@@ -10614,28 +10614,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>5025.371370159356</v>
+        <v>5374.791318090633</v>
       </c>
       <c r="AB6" t="n">
-        <v>6875.934812390209</v>
+        <v>7354.026600469956</v>
       </c>
       <c r="AC6" t="n">
-        <v>6219.705244330548</v>
+        <v>6652.168623161986</v>
       </c>
       <c r="AD6" t="n">
-        <v>5025371.370159356</v>
+        <v>5374791.318090633</v>
       </c>
       <c r="AE6" t="n">
-        <v>6875934.812390209</v>
+        <v>7354026.600469956</v>
       </c>
       <c r="AF6" t="n">
         <v>2.355315124227213e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>72</v>
+        <v>71.14999999999999</v>
       </c>
       <c r="AH6" t="n">
-        <v>6219705.244330549</v>
+        <v>6652168.623161986</v>
       </c>
     </row>
     <row r="7">
@@ -10720,28 +10720,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>4772.693080278531</v>
+        <v>5122.044697372248</v>
       </c>
       <c r="AB7" t="n">
-        <v>6530.209228795839</v>
+        <v>7008.20752360909</v>
       </c>
       <c r="AC7" t="n">
-        <v>5906.975225205533</v>
+        <v>6339.354033636611</v>
       </c>
       <c r="AD7" t="n">
-        <v>4772693.080278531</v>
+        <v>5122044.697372248</v>
       </c>
       <c r="AE7" t="n">
-        <v>6530209.228795839</v>
+        <v>7008207.523609091</v>
       </c>
       <c r="AF7" t="n">
         <v>2.415645941958442e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>70</v>
+        <v>69.37083333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>5906975.225205533</v>
+        <v>6339354.033636611</v>
       </c>
     </row>
     <row r="8">
@@ -10826,28 +10826,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>4583.937182588857</v>
+        <v>4923.614036402529</v>
       </c>
       <c r="AB8" t="n">
-        <v>6271.94508225432</v>
+        <v>6736.705939127379</v>
       </c>
       <c r="AC8" t="n">
-        <v>5673.35944633394</v>
+        <v>6093.764179322977</v>
       </c>
       <c r="AD8" t="n">
-        <v>4583937.182588858</v>
+        <v>4923614.036402529</v>
       </c>
       <c r="AE8" t="n">
-        <v>6271945.08225432</v>
+        <v>6736705.939127379</v>
       </c>
       <c r="AF8" t="n">
         <v>2.459888541628011e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>69</v>
+        <v>68.13333333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>5673359.44633394</v>
+        <v>6093764.179322977</v>
       </c>
     </row>
     <row r="9">
@@ -10932,28 +10932,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>4424.529760421146</v>
+        <v>4754.531850954771</v>
       </c>
       <c r="AB9" t="n">
-        <v>6053.83681468531</v>
+        <v>6505.360233618178</v>
       </c>
       <c r="AC9" t="n">
-        <v>5476.06712570485</v>
+        <v>5884.497783251846</v>
       </c>
       <c r="AD9" t="n">
-        <v>4424529.760421146</v>
+        <v>4754531.85095477</v>
       </c>
       <c r="AE9" t="n">
-        <v>6053836.81468531</v>
+        <v>6505360.233618178</v>
       </c>
       <c r="AF9" t="n">
         <v>2.4936737995575e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>68</v>
+        <v>67.20416666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>5476067.12570485</v>
+        <v>5884497.783251846</v>
       </c>
     </row>
     <row r="10">
@@ -11038,28 +11038,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>4279.490413768253</v>
+        <v>4609.458338883098</v>
       </c>
       <c r="AB10" t="n">
-        <v>5855.387581910435</v>
+        <v>6306.864254210054</v>
       </c>
       <c r="AC10" t="n">
-        <v>5296.557609180768</v>
+        <v>5704.945981527585</v>
       </c>
       <c r="AD10" t="n">
-        <v>4279490.413768253</v>
+        <v>4609458.338883098</v>
       </c>
       <c r="AE10" t="n">
-        <v>5855387.581910435</v>
+        <v>6306864.254210054</v>
       </c>
       <c r="AF10" t="n">
         <v>2.521425975713865e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>67</v>
+        <v>66.46249999999999</v>
       </c>
       <c r="AH10" t="n">
-        <v>5296557.609180768</v>
+        <v>5704945.981527585</v>
       </c>
     </row>
     <row r="11">
@@ -11144,28 +11144,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>4158.795234048459</v>
+        <v>4488.830478971007</v>
       </c>
       <c r="AB11" t="n">
-        <v>5690.247112322271</v>
+        <v>6141.815894552732</v>
       </c>
       <c r="AC11" t="n">
-        <v>5147.177914234</v>
+        <v>5555.649605669134</v>
       </c>
       <c r="AD11" t="n">
-        <v>4158795.234048459</v>
+        <v>4488830.478971007</v>
       </c>
       <c r="AE11" t="n">
-        <v>5690247.112322271</v>
+        <v>6141815.894552732</v>
       </c>
       <c r="AF11" t="n">
         <v>2.541536248290942e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>66</v>
+        <v>65.9375</v>
       </c>
       <c r="AH11" t="n">
-        <v>5147177.914234</v>
+        <v>5555649.605669134</v>
       </c>
     </row>
     <row r="12">
@@ -11250,28 +11250,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>4070.665497958571</v>
+        <v>4400.70074288112</v>
       </c>
       <c r="AB12" t="n">
-        <v>5569.664119394525</v>
+        <v>6021.232901624985</v>
       </c>
       <c r="AC12" t="n">
-        <v>5038.103192911989</v>
+        <v>5446.574884347123</v>
       </c>
       <c r="AD12" t="n">
-        <v>4070665.497958571</v>
+        <v>4400700.74288112</v>
       </c>
       <c r="AE12" t="n">
-        <v>5569664.119394525</v>
+        <v>6021232.901624985</v>
       </c>
       <c r="AF12" t="n">
         <v>2.556015644546437e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>66</v>
+        <v>65.56666666666668</v>
       </c>
       <c r="AH12" t="n">
-        <v>5038103.192911989</v>
+        <v>5446574.884347123</v>
       </c>
     </row>
     <row r="13">
@@ -11356,28 +11356,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>4052.042213305126</v>
+        <v>4381.975973001189</v>
       </c>
       <c r="AB13" t="n">
-        <v>5544.182919730348</v>
+        <v>5995.612845396718</v>
       </c>
       <c r="AC13" t="n">
-        <v>5015.053883180674</v>
+        <v>5423.399970327309</v>
       </c>
       <c r="AD13" t="n">
-        <v>4052042.213305126</v>
+        <v>4381975.97300119</v>
       </c>
       <c r="AE13" t="n">
-        <v>5544182.919730348</v>
+        <v>5995612.845396718</v>
       </c>
       <c r="AF13" t="n">
         <v>2.560842109964936e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>66</v>
+        <v>65.44166666666666</v>
       </c>
       <c r="AH13" t="n">
-        <v>5015053.883180674</v>
+        <v>5423399.970327309</v>
       </c>
     </row>
     <row r="14">
@@ -11462,28 +11462,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>4059.868063522798</v>
+        <v>4389.801823218862</v>
       </c>
       <c r="AB14" t="n">
-        <v>5554.890593250311</v>
+        <v>6006.320518916681</v>
       </c>
       <c r="AC14" t="n">
-        <v>5024.739631368206</v>
+        <v>5433.085718514841</v>
       </c>
       <c r="AD14" t="n">
-        <v>4059868.063522798</v>
+        <v>4389801.823218862</v>
       </c>
       <c r="AE14" t="n">
-        <v>5554890.593250311</v>
+        <v>6006320.518916681</v>
       </c>
       <c r="AF14" t="n">
         <v>2.560439904513394e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>66</v>
+        <v>65.45</v>
       </c>
       <c r="AH14" t="n">
-        <v>5024739.631368206</v>
+        <v>5433085.718514841</v>
       </c>
     </row>
   </sheetData>
@@ -11759,28 +11759,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3241.214985650272</v>
+        <v>3617.848576863417</v>
       </c>
       <c r="AB2" t="n">
-        <v>4434.773335680231</v>
+        <v>4950.10003107944</v>
       </c>
       <c r="AC2" t="n">
-        <v>4011.524792766211</v>
+        <v>4477.669431622059</v>
       </c>
       <c r="AD2" t="n">
-        <v>3241214.985650272</v>
+        <v>3617848.576863417</v>
       </c>
       <c r="AE2" t="n">
-        <v>4434773.335680231</v>
+        <v>4950100.031079439</v>
       </c>
       <c r="AF2" t="n">
         <v>3.854330039072384e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>78</v>
+        <v>77.94166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>4011524.792766211</v>
+        <v>4477669.431622059</v>
       </c>
     </row>
     <row r="3">
@@ -11865,28 +11865,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2754.701797698842</v>
+        <v>3094.645646297035</v>
       </c>
       <c r="AB3" t="n">
-        <v>3769.104528478008</v>
+        <v>4234.23069939423</v>
       </c>
       <c r="AC3" t="n">
-        <v>3409.386482251355</v>
+        <v>3830.121664223995</v>
       </c>
       <c r="AD3" t="n">
-        <v>2754701.797698842</v>
+        <v>3094645.646297035</v>
       </c>
       <c r="AE3" t="n">
-        <v>3769104.528478008</v>
+        <v>4234230.69939423</v>
       </c>
       <c r="AF3" t="n">
         <v>4.178768594549857e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>72</v>
+        <v>71.88333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>3409386.482251355</v>
+        <v>3830121.664223995</v>
       </c>
     </row>
   </sheetData>
@@ -12162,28 +12162,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>11449.238259503</v>
+        <v>12053.10623638654</v>
       </c>
       <c r="AB2" t="n">
-        <v>15665.35289139641</v>
+        <v>16491.59169814344</v>
       </c>
       <c r="AC2" t="n">
-        <v>14170.27359790181</v>
+        <v>14917.65733256632</v>
       </c>
       <c r="AD2" t="n">
-        <v>11449238.259503</v>
+        <v>12053106.23638654</v>
       </c>
       <c r="AE2" t="n">
-        <v>15665352.89139641</v>
+        <v>16491591.69814344</v>
       </c>
       <c r="AF2" t="n">
         <v>1.524673604178625e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>123</v>
+        <v>122.4958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>14170273.59790181</v>
+        <v>14917657.33256632</v>
       </c>
     </row>
     <row r="3">
@@ -12268,28 +12268,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>5899.999860185767</v>
+        <v>6302.61301387019</v>
       </c>
       <c r="AB3" t="n">
-        <v>8072.640098330139</v>
+        <v>8623.513177239956</v>
       </c>
       <c r="AC3" t="n">
-        <v>7302.198657366743</v>
+        <v>7800.497182780608</v>
       </c>
       <c r="AD3" t="n">
-        <v>5899999.860185767</v>
+        <v>6302613.01387019</v>
       </c>
       <c r="AE3" t="n">
-        <v>8072640.098330139</v>
+        <v>8623513.177239956</v>
       </c>
       <c r="AF3" t="n">
         <v>2.247571465301529e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>84</v>
+        <v>83.075</v>
       </c>
       <c r="AH3" t="n">
-        <v>7302198.657366742</v>
+        <v>7800497.182780609</v>
       </c>
     </row>
     <row r="4">
@@ -12374,28 +12374,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>4880.581382748479</v>
+        <v>5244.908081106236</v>
       </c>
       <c r="AB4" t="n">
-        <v>6677.826763931214</v>
+        <v>7176.314625583884</v>
       </c>
       <c r="AC4" t="n">
-        <v>6040.504349970095</v>
+        <v>6491.417229738721</v>
       </c>
       <c r="AD4" t="n">
-        <v>4880581.382748479</v>
+        <v>5244908.081106236</v>
       </c>
       <c r="AE4" t="n">
-        <v>6677826.763931215</v>
+        <v>7176314.625583883</v>
       </c>
       <c r="AF4" t="n">
         <v>2.503924581583179e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>75</v>
+        <v>74.57083333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>6040504.349970095</v>
+        <v>6491417.229738722</v>
       </c>
     </row>
     <row r="5">
@@ -12480,28 +12480,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>4416.940375281096</v>
+        <v>4771.610299017697</v>
       </c>
       <c r="AB5" t="n">
-        <v>6043.452683116654</v>
+        <v>6528.727719705828</v>
       </c>
       <c r="AC5" t="n">
-        <v>5466.674041078885</v>
+        <v>5905.635109263761</v>
       </c>
       <c r="AD5" t="n">
-        <v>4416940.375281096</v>
+        <v>4771610.299017697</v>
       </c>
       <c r="AE5" t="n">
-        <v>6043452.683116654</v>
+        <v>6528727.719705828</v>
       </c>
       <c r="AF5" t="n">
         <v>2.637031007344806e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>71</v>
+        <v>70.80833333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>5466674.041078885</v>
+        <v>5905635.109263762</v>
       </c>
     </row>
     <row r="6">
@@ -12586,28 +12586,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>4124.476130086457</v>
+        <v>4469.557610039466</v>
       </c>
       <c r="AB6" t="n">
-        <v>5643.290200229448</v>
+        <v>6115.445905021626</v>
       </c>
       <c r="AC6" t="n">
-        <v>5104.702503926878</v>
+        <v>5531.796330928365</v>
       </c>
       <c r="AD6" t="n">
-        <v>4124476.130086457</v>
+        <v>4469557.610039465</v>
       </c>
       <c r="AE6" t="n">
-        <v>5643290.200229447</v>
+        <v>6115445.905021626</v>
       </c>
       <c r="AF6" t="n">
         <v>2.719494247547294e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>69</v>
+        <v>68.66666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>5104702.503926878</v>
+        <v>5531796.330928365</v>
       </c>
     </row>
     <row r="7">
@@ -12692,28 +12692,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3917.864402492908</v>
+        <v>4243.770005908587</v>
       </c>
       <c r="AB7" t="n">
-        <v>5360.594919469826</v>
+        <v>5806.513344003661</v>
       </c>
       <c r="AC7" t="n">
-        <v>4848.987263997645</v>
+        <v>5252.347859944395</v>
       </c>
       <c r="AD7" t="n">
-        <v>3917864.402492908</v>
+        <v>4243770.005908587</v>
       </c>
       <c r="AE7" t="n">
-        <v>5360594.919469826</v>
+        <v>5806513.344003661</v>
       </c>
       <c r="AF7" t="n">
         <v>2.775515470510941e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>68</v>
+        <v>67.28333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>4848987.263997645</v>
+        <v>5252347.859944395</v>
       </c>
     </row>
     <row r="8">
@@ -12798,28 +12798,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>3740.722655916799</v>
+        <v>4066.594093913697</v>
       </c>
       <c r="AB8" t="n">
-        <v>5118.221766862071</v>
+        <v>5564.09344476266</v>
       </c>
       <c r="AC8" t="n">
-        <v>4629.745864901927</v>
+        <v>5033.064175648497</v>
       </c>
       <c r="AD8" t="n">
-        <v>3740722.655916799</v>
+        <v>4066594.093913697</v>
       </c>
       <c r="AE8" t="n">
-        <v>5118221.76686207</v>
+        <v>5564093.444762659</v>
       </c>
       <c r="AF8" t="n">
         <v>2.815402581261058e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>67</v>
+        <v>66.32083333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>4629745.864901927</v>
+        <v>5033064.175648496</v>
       </c>
     </row>
     <row r="9">
@@ -12904,28 +12904,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>3668.741256537906</v>
+        <v>3994.680014342508</v>
       </c>
       <c r="AB9" t="n">
-        <v>5019.733640636645</v>
+        <v>5465.697428468075</v>
       </c>
       <c r="AC9" t="n">
-        <v>4540.657307214507</v>
+        <v>4944.058937049396</v>
       </c>
       <c r="AD9" t="n">
-        <v>3668741.256537906</v>
+        <v>3994680.014342508</v>
       </c>
       <c r="AE9" t="n">
-        <v>5019733.640636645</v>
+        <v>5465697.428468075</v>
       </c>
       <c r="AF9" t="n">
         <v>2.830192184123461e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>66</v>
+        <v>65.98333333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>4540657.307214507</v>
+        <v>4944058.937049396</v>
       </c>
     </row>
     <row r="10">
@@ -13010,28 +13010,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>3686.673796177381</v>
+        <v>4012.612553981982</v>
       </c>
       <c r="AB10" t="n">
-        <v>5044.26973249919</v>
+        <v>5490.233520330619</v>
       </c>
       <c r="AC10" t="n">
-        <v>4562.851708906311</v>
+        <v>4966.253338741199</v>
       </c>
       <c r="AD10" t="n">
-        <v>3686673.796177381</v>
+        <v>4012612.553981982</v>
       </c>
       <c r="AE10" t="n">
-        <v>5044269.73249919</v>
+        <v>5490233.520330619</v>
       </c>
       <c r="AF10" t="n">
         <v>2.829744014339752e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>66</v>
+        <v>65.99583333333332</v>
       </c>
       <c r="AH10" t="n">
-        <v>4562851.708906311</v>
+        <v>4966253.338741198</v>
       </c>
     </row>
   </sheetData>
@@ -13307,28 +13307,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>14428.91359183524</v>
+        <v>15113.93602009608</v>
       </c>
       <c r="AB2" t="n">
-        <v>19742.27613509171</v>
+        <v>20679.55404249489</v>
       </c>
       <c r="AC2" t="n">
-        <v>17858.1010092164</v>
+        <v>18705.92642861479</v>
       </c>
       <c r="AD2" t="n">
-        <v>14428913.59183524</v>
+        <v>15113936.02009608</v>
       </c>
       <c r="AE2" t="n">
-        <v>19742276.13509171</v>
+        <v>20679554.04249489</v>
       </c>
       <c r="AF2" t="n">
         <v>1.296172657465095e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>136</v>
+        <v>135.9875</v>
       </c>
       <c r="AH2" t="n">
-        <v>17858101.0092164</v>
+        <v>18705926.42861479</v>
       </c>
     </row>
     <row r="3">
@@ -13413,28 +13413,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>6711.933058120255</v>
+        <v>7146.129631368259</v>
       </c>
       <c r="AB3" t="n">
-        <v>9183.562919708815</v>
+        <v>9777.649826627663</v>
       </c>
       <c r="AC3" t="n">
-        <v>8307.096563862968</v>
+        <v>8844.484650191669</v>
       </c>
       <c r="AD3" t="n">
-        <v>6711933.058120254</v>
+        <v>7146129.631368259</v>
       </c>
       <c r="AE3" t="n">
-        <v>9183562.919708814</v>
+        <v>9777649.826627662</v>
       </c>
       <c r="AF3" t="n">
         <v>2.032672852193141e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>87</v>
+        <v>86.71666666666665</v>
       </c>
       <c r="AH3" t="n">
-        <v>8307096.563862968</v>
+        <v>8844484.650191668</v>
       </c>
     </row>
     <row r="4">
@@ -13519,28 +13519,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>5448.871349075725</v>
+        <v>5834.81247015658</v>
       </c>
       <c r="AB4" t="n">
-        <v>7455.386167044074</v>
+        <v>7983.447835427521</v>
       </c>
       <c r="AC4" t="n">
-        <v>6743.854574961309</v>
+        <v>7221.518778853428</v>
       </c>
       <c r="AD4" t="n">
-        <v>5448871.349075724</v>
+        <v>5834812.47015658</v>
       </c>
       <c r="AE4" t="n">
-        <v>7455386.167044073</v>
+        <v>7983447.835427521</v>
       </c>
       <c r="AF4" t="n">
         <v>2.297914450179634e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>77</v>
+        <v>76.7</v>
       </c>
       <c r="AH4" t="n">
-        <v>6743854.574961309</v>
+        <v>7221518.778853428</v>
       </c>
     </row>
     <row r="5">
@@ -13625,28 +13625,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>4906.007191318474</v>
+        <v>5262.961886710116</v>
       </c>
       <c r="AB5" t="n">
-        <v>6712.615476924189</v>
+        <v>7201.016638888806</v>
       </c>
       <c r="AC5" t="n">
-        <v>6071.972877021285</v>
+        <v>6513.761717563313</v>
       </c>
       <c r="AD5" t="n">
-        <v>4906007.191318474</v>
+        <v>5262961.886710117</v>
       </c>
       <c r="AE5" t="n">
-        <v>6712615.476924189</v>
+        <v>7201016.638888805</v>
       </c>
       <c r="AF5" t="n">
         <v>2.436246192670197e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>73</v>
+        <v>72.34583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>6071972.877021285</v>
+        <v>6513761.717563313</v>
       </c>
     </row>
     <row r="6">
@@ -13731,28 +13731,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>4577.359271951983</v>
+        <v>4924.730196717899</v>
       </c>
       <c r="AB6" t="n">
-        <v>6262.944894724011</v>
+        <v>6738.233118912388</v>
       </c>
       <c r="AC6" t="n">
-        <v>5665.218224069681</v>
+        <v>6095.145607212713</v>
       </c>
       <c r="AD6" t="n">
-        <v>4577359.271951983</v>
+        <v>4924730.196717899</v>
       </c>
       <c r="AE6" t="n">
-        <v>6262944.89472401</v>
+        <v>6738233.118912388</v>
       </c>
       <c r="AF6" t="n">
         <v>2.521698828704123e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>70</v>
+        <v>69.89999999999999</v>
       </c>
       <c r="AH6" t="n">
-        <v>5665218.224069681</v>
+        <v>6095145.607212713</v>
       </c>
     </row>
     <row r="7">
@@ -13837,28 +13837,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>4353.641191770741</v>
+        <v>4691.293706295522</v>
       </c>
       <c r="AB7" t="n">
-        <v>5956.843947674892</v>
+        <v>6418.835014225347</v>
       </c>
       <c r="AC7" t="n">
-        <v>5388.331121791565</v>
+        <v>5806.23040935896</v>
       </c>
       <c r="AD7" t="n">
-        <v>4353641.191770741</v>
+        <v>4691293.706295523</v>
       </c>
       <c r="AE7" t="n">
-        <v>5956843.947674892</v>
+        <v>6418835.014225347</v>
       </c>
       <c r="AF7" t="n">
         <v>2.579231296528945e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>69</v>
+        <v>68.34166666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>5388331.121791565</v>
+        <v>5806230.40935896</v>
       </c>
     </row>
     <row r="8">
@@ -13943,28 +13943,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>4172.545291758927</v>
+        <v>4500.58088126906</v>
       </c>
       <c r="AB8" t="n">
-        <v>5709.060547891469</v>
+        <v>6157.893313368093</v>
       </c>
       <c r="AC8" t="n">
-        <v>5164.195821917297</v>
+        <v>5570.192618197556</v>
       </c>
       <c r="AD8" t="n">
-        <v>4172545.291758928</v>
+        <v>4500580.88126906</v>
       </c>
       <c r="AE8" t="n">
-        <v>5709060.54789147</v>
+        <v>6157893.313368093</v>
       </c>
       <c r="AF8" t="n">
         <v>2.622803680249214e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>68</v>
+        <v>67.20416666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>5164195.821917296</v>
+        <v>5570192.618197556</v>
       </c>
     </row>
     <row r="9">
@@ -14049,28 +14049,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>4010.744973858862</v>
+        <v>4338.746397950214</v>
       </c>
       <c r="AB9" t="n">
-        <v>5487.678214814345</v>
+        <v>5936.46423365772</v>
       </c>
       <c r="AC9" t="n">
-        <v>4963.941907997005</v>
+        <v>5369.896419077085</v>
       </c>
       <c r="AD9" t="n">
-        <v>4010744.973858862</v>
+        <v>4338746.397950214</v>
       </c>
       <c r="AE9" t="n">
-        <v>5487678.214814344</v>
+        <v>5936464.23365772</v>
       </c>
       <c r="AF9" t="n">
         <v>2.65495417697485e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>67</v>
+        <v>66.39166666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>4963941.907997005</v>
+        <v>5369896.419077084</v>
       </c>
     </row>
     <row r="10">
@@ -14155,28 +14155,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>3890.284431905893</v>
+        <v>4218.35317580495</v>
       </c>
       <c r="AB10" t="n">
-        <v>5322.858786970241</v>
+        <v>5771.736915744457</v>
       </c>
       <c r="AC10" t="n">
-        <v>4814.852615020827</v>
+        <v>5220.890445189227</v>
       </c>
       <c r="AD10" t="n">
-        <v>3890284.431905893</v>
+        <v>4218353.17580495</v>
       </c>
       <c r="AE10" t="n">
-        <v>5322858.786970241</v>
+        <v>5771736.915744457</v>
       </c>
       <c r="AF10" t="n">
         <v>2.677374918112464e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>66</v>
+        <v>65.83333333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>4814852.615020827</v>
+        <v>5220890.445189226</v>
       </c>
     </row>
     <row r="11">
@@ -14261,28 +14261,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>3862.660162786623</v>
+        <v>4190.728906685678</v>
       </c>
       <c r="AB11" t="n">
-        <v>5285.06204326451</v>
+        <v>5733.940172038727</v>
       </c>
       <c r="AC11" t="n">
-        <v>4780.66313948631</v>
+        <v>5186.700969654709</v>
       </c>
       <c r="AD11" t="n">
-        <v>3862660.162786623</v>
+        <v>4190728.906685679</v>
       </c>
       <c r="AE11" t="n">
-        <v>5285062.04326451</v>
+        <v>5733940.172038727</v>
       </c>
       <c r="AF11" t="n">
         <v>2.682874345183954e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>66</v>
+        <v>65.70416666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>4780663.13948631</v>
+        <v>5186700.969654709</v>
       </c>
     </row>
     <row r="12">
@@ -14367,28 +14367,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>3873.004748758062</v>
+        <v>4201.073492657119</v>
       </c>
       <c r="AB12" t="n">
-        <v>5299.215962161558</v>
+        <v>5748.094090935776</v>
       </c>
       <c r="AC12" t="n">
-        <v>4793.466228228974</v>
+        <v>5199.504058397374</v>
       </c>
       <c r="AD12" t="n">
-        <v>3873004.748758062</v>
+        <v>4201073.492657119</v>
       </c>
       <c r="AE12" t="n">
-        <v>5299215.962161559</v>
+        <v>5748094.090935776</v>
       </c>
       <c r="AF12" t="n">
         <v>2.684143443738913e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>66</v>
+        <v>65.66666666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>4793466.228228974</v>
+        <v>5199504.058397374</v>
       </c>
     </row>
   </sheetData>
@@ -14664,28 +14664,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>23355.31287645996</v>
+        <v>24214.20420751421</v>
       </c>
       <c r="AB2" t="n">
-        <v>31955.76944125924</v>
+        <v>33130.94245201902</v>
       </c>
       <c r="AC2" t="n">
-        <v>28905.9556559882</v>
+        <v>29968.97180396671</v>
       </c>
       <c r="AD2" t="n">
-        <v>23355312.87645996</v>
+        <v>24214204.20751421</v>
       </c>
       <c r="AE2" t="n">
-        <v>31955769.44125924</v>
+        <v>33130942.45201902</v>
       </c>
       <c r="AF2" t="n">
         <v>9.367866094436941e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>172</v>
+        <v>171.0791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>28905955.65598821</v>
+        <v>29968971.8039667</v>
       </c>
     </row>
     <row r="3">
@@ -14770,28 +14770,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>8507.791731926061</v>
+        <v>8986.068149531508</v>
       </c>
       <c r="AB3" t="n">
-        <v>11640.73598490314</v>
+        <v>12295.13487953733</v>
       </c>
       <c r="AC3" t="n">
-        <v>10529.76048037911</v>
+        <v>11121.704462964</v>
       </c>
       <c r="AD3" t="n">
-        <v>8507791.731926061</v>
+        <v>8986068.149531508</v>
       </c>
       <c r="AE3" t="n">
-        <v>11640735.98490314</v>
+        <v>12295134.87953733</v>
       </c>
       <c r="AF3" t="n">
         <v>1.695522233594929e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>95</v>
+        <v>94.5125</v>
       </c>
       <c r="AH3" t="n">
-        <v>10529760.48037911</v>
+        <v>11121704.462964</v>
       </c>
     </row>
     <row r="4">
@@ -14876,28 +14876,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>6640.426899690197</v>
+        <v>7050.296152650542</v>
       </c>
       <c r="AB4" t="n">
-        <v>9085.725039115739</v>
+        <v>9646.526233171378</v>
       </c>
       <c r="AC4" t="n">
-        <v>8218.596193277372</v>
+        <v>8725.87530846174</v>
       </c>
       <c r="AD4" t="n">
-        <v>6640426.899690198</v>
+        <v>7050296.152650543</v>
       </c>
       <c r="AE4" t="n">
-        <v>9085725.03911574</v>
+        <v>9646526.233171379</v>
       </c>
       <c r="AF4" t="n">
         <v>1.972789534665907e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>82</v>
+        <v>81.21666666666665</v>
       </c>
       <c r="AH4" t="n">
-        <v>8218596.193277372</v>
+        <v>8725875.308461741</v>
       </c>
     </row>
     <row r="5">
@@ -14982,28 +14982,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>5880.490927497191</v>
+        <v>6261.173160753707</v>
       </c>
       <c r="AB5" t="n">
-        <v>8045.947115952262</v>
+        <v>8566.813342008691</v>
       </c>
       <c r="AC5" t="n">
-        <v>7278.053215763175</v>
+        <v>7749.208700245098</v>
       </c>
       <c r="AD5" t="n">
-        <v>5880490.927497191</v>
+        <v>6261173.160753706</v>
       </c>
       <c r="AE5" t="n">
-        <v>8045947.115952262</v>
+        <v>8566813.342008691</v>
       </c>
       <c r="AF5" t="n">
         <v>2.120844889606721e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>76</v>
+        <v>75.54583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>7278053.215763175</v>
+        <v>7749208.700245098</v>
       </c>
     </row>
     <row r="6">
@@ -15088,28 +15088,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>5454.004703641699</v>
+        <v>5815.093947136967</v>
       </c>
       <c r="AB6" t="n">
-        <v>7462.40984922886</v>
+        <v>7956.468082312245</v>
       </c>
       <c r="AC6" t="n">
-        <v>6750.20792677618</v>
+        <v>7197.113935509153</v>
       </c>
       <c r="AD6" t="n">
-        <v>5454004.703641699</v>
+        <v>5815093.947136967</v>
       </c>
       <c r="AE6" t="n">
-        <v>7462409.849228861</v>
+        <v>7956468.082312245</v>
       </c>
       <c r="AF6" t="n">
         <v>2.213908255569518e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>73</v>
+        <v>72.37916666666668</v>
       </c>
       <c r="AH6" t="n">
-        <v>6750207.92677618</v>
+        <v>7197113.935509153</v>
       </c>
     </row>
     <row r="7">
@@ -15194,28 +15194,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>5186.076863130415</v>
+        <v>5537.403271648913</v>
       </c>
       <c r="AB7" t="n">
-        <v>7095.819157699203</v>
+        <v>7576.519449261487</v>
       </c>
       <c r="AC7" t="n">
-        <v>6418.60413633286</v>
+        <v>6853.427066735519</v>
       </c>
       <c r="AD7" t="n">
-        <v>5186076.863130416</v>
+        <v>5537403.271648913</v>
       </c>
       <c r="AE7" t="n">
-        <v>7095819.157699203</v>
+        <v>7576519.449261487</v>
       </c>
       <c r="AF7" t="n">
         <v>2.273899516272809e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>71</v>
+        <v>70.46250000000001</v>
       </c>
       <c r="AH7" t="n">
-        <v>6418604.136332859</v>
+        <v>6853427.066735518</v>
       </c>
     </row>
     <row r="8">
@@ -15300,28 +15300,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>4984.946282367956</v>
+        <v>5326.544021328463</v>
       </c>
       <c r="AB8" t="n">
-        <v>6820.623423845008</v>
+        <v>7288.012520519441</v>
       </c>
       <c r="AC8" t="n">
-        <v>6169.672697078083</v>
+        <v>6592.454834350606</v>
       </c>
       <c r="AD8" t="n">
-        <v>4984946.282367956</v>
+        <v>5326544.021328463</v>
       </c>
       <c r="AE8" t="n">
-        <v>6820623.423845008</v>
+        <v>7288012.520519441</v>
       </c>
       <c r="AF8" t="n">
         <v>2.320046639890725e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>70</v>
+        <v>69.05833333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>6169672.697078083</v>
+        <v>6592454.834350605</v>
       </c>
     </row>
     <row r="9">
@@ -15406,28 +15406,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>4816.139856760044</v>
+        <v>5157.70343030177</v>
       </c>
       <c r="AB9" t="n">
-        <v>6589.65502511435</v>
+        <v>7056.997375155534</v>
       </c>
       <c r="AC9" t="n">
-        <v>5960.747598156103</v>
+        <v>6383.487450228447</v>
       </c>
       <c r="AD9" t="n">
-        <v>4816139.856760044</v>
+        <v>5157703.43030177</v>
       </c>
       <c r="AE9" t="n">
-        <v>6589655.02511435</v>
+        <v>7056997.375155534</v>
       </c>
       <c r="AF9" t="n">
         <v>2.35581066069461e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>69</v>
+        <v>68.01666666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>5960747.598156103</v>
+        <v>6383487.450228447</v>
       </c>
     </row>
     <row r="10">
@@ -15512,28 +15512,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>4680.611327924106</v>
+        <v>5012.446231907843</v>
       </c>
       <c r="AB10" t="n">
-        <v>6404.218912864301</v>
+        <v>6858.250068017633</v>
       </c>
       <c r="AC10" t="n">
-        <v>5793.009248197987</v>
+        <v>6203.708307140197</v>
       </c>
       <c r="AD10" t="n">
-        <v>4680611.327924106</v>
+        <v>5012446.231907843</v>
       </c>
       <c r="AE10" t="n">
-        <v>6404218.912864301</v>
+        <v>6858250.068017633</v>
       </c>
       <c r="AF10" t="n">
         <v>2.382729816138394e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>68</v>
+        <v>67.24583333333332</v>
       </c>
       <c r="AH10" t="n">
-        <v>5793009.248197988</v>
+        <v>6203708.307140197</v>
       </c>
     </row>
     <row r="11">
@@ -15618,28 +15618,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>4553.670856478322</v>
+        <v>4885.573080269763</v>
       </c>
       <c r="AB11" t="n">
-        <v>6230.533359613813</v>
+        <v>6684.656624697986</v>
       </c>
       <c r="AC11" t="n">
-        <v>5635.900000380528</v>
+        <v>6046.682378411055</v>
       </c>
       <c r="AD11" t="n">
-        <v>4553670.856478322</v>
+        <v>4885573.080269762</v>
       </c>
       <c r="AE11" t="n">
-        <v>6230533.359613813</v>
+        <v>6684656.624697985</v>
       </c>
       <c r="AF11" t="n">
         <v>2.405034259220387e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>67</v>
+        <v>66.62916666666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>5635900.000380527</v>
+        <v>6046682.378411055</v>
       </c>
     </row>
     <row r="12">
@@ -15724,28 +15724,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>4449.425422598347</v>
+        <v>4781.226161163302</v>
       </c>
       <c r="AB12" t="n">
-        <v>6087.90015799526</v>
+        <v>6541.884566515343</v>
       </c>
       <c r="AC12" t="n">
-        <v>5506.879511337498</v>
+        <v>5917.536285079527</v>
       </c>
       <c r="AD12" t="n">
-        <v>4449425.422598347</v>
+        <v>4781226.161163302</v>
       </c>
       <c r="AE12" t="n">
-        <v>6087900.15799526</v>
+        <v>6541884.566515343</v>
       </c>
       <c r="AF12" t="n">
         <v>2.424262227394518e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>67</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="AH12" t="n">
-        <v>5506879.511337498</v>
+        <v>5917536.285079528</v>
       </c>
     </row>
     <row r="13">
@@ -15830,28 +15830,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>4338.217386359188</v>
+        <v>4670.085444731846</v>
       </c>
       <c r="AB13" t="n">
-        <v>5935.740416660532</v>
+        <v>6389.816935111459</v>
       </c>
       <c r="AC13" t="n">
-        <v>5369.241682158226</v>
+        <v>5779.981774988574</v>
       </c>
       <c r="AD13" t="n">
-        <v>4338217.386359188</v>
+        <v>4670085.444731846</v>
       </c>
       <c r="AE13" t="n">
-        <v>5935740.416660532</v>
+        <v>6389816.935111459</v>
       </c>
       <c r="AF13" t="n">
         <v>2.439260042570341e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>66</v>
+        <v>65.6875</v>
       </c>
       <c r="AH13" t="n">
-        <v>5369241.682158226</v>
+        <v>5779981.774988574</v>
       </c>
     </row>
     <row r="14">
@@ -15936,28 +15936,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>4261.70036761052</v>
+        <v>4593.466940756694</v>
       </c>
       <c r="AB14" t="n">
-        <v>5831.046455915976</v>
+        <v>6284.984117802813</v>
       </c>
       <c r="AC14" t="n">
-        <v>5274.539566088237</v>
+        <v>5685.154054630086</v>
       </c>
       <c r="AD14" t="n">
-        <v>4261700.36761052</v>
+        <v>4593466.940756694</v>
       </c>
       <c r="AE14" t="n">
-        <v>5831046.455915976</v>
+        <v>6284984.117802813</v>
       </c>
       <c r="AF14" t="n">
         <v>2.450412264111337e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>66</v>
+        <v>65.3875</v>
       </c>
       <c r="AH14" t="n">
-        <v>5274539.566088237</v>
+        <v>5685154.054630086</v>
       </c>
     </row>
     <row r="15">
@@ -16042,28 +16042,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>4235.821815804417</v>
+        <v>4557.893884811382</v>
       </c>
       <c r="AB15" t="n">
-        <v>5795.638279653735</v>
+        <v>6236.311493285967</v>
       </c>
       <c r="AC15" t="n">
-        <v>5242.510696472778</v>
+        <v>5641.126677084671</v>
       </c>
       <c r="AD15" t="n">
-        <v>4235821.815804417</v>
+        <v>4557893.884811382</v>
       </c>
       <c r="AE15" t="n">
-        <v>5795638.279653735</v>
+        <v>6236311.493285967</v>
       </c>
       <c r="AF15" t="n">
         <v>2.455026976473129e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>66</v>
+        <v>65.27083333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>5242510.696472778</v>
+        <v>5641126.677084671</v>
       </c>
     </row>
     <row r="16">
@@ -16148,28 +16148,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>4244.677110568067</v>
+        <v>4566.749179575031</v>
       </c>
       <c r="AB16" t="n">
-        <v>5807.754484617394</v>
+        <v>6248.427698249625</v>
       </c>
       <c r="AC16" t="n">
-        <v>5253.470547839905</v>
+        <v>5652.086528451799</v>
       </c>
       <c r="AD16" t="n">
-        <v>4244677.110568067</v>
+        <v>4566749.179575031</v>
       </c>
       <c r="AE16" t="n">
-        <v>5807754.484617394</v>
+        <v>6248427.698249625</v>
       </c>
       <c r="AF16" t="n">
         <v>2.454642417109647e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>66</v>
+        <v>65.27499999999999</v>
       </c>
       <c r="AH16" t="n">
-        <v>5253470.547839904</v>
+        <v>5652086.528451798</v>
       </c>
     </row>
   </sheetData>
@@ -16445,28 +16445,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>9079.419881875801</v>
+        <v>9631.394090155851</v>
       </c>
       <c r="AB2" t="n">
-        <v>12422.86283811856</v>
+        <v>13178.09830127081</v>
       </c>
       <c r="AC2" t="n">
-        <v>11237.24224444556</v>
+        <v>11920.39909497415</v>
       </c>
       <c r="AD2" t="n">
-        <v>9079419.881875802</v>
+        <v>9631394.090155851</v>
       </c>
       <c r="AE2" t="n">
-        <v>12422862.83811856</v>
+        <v>13178098.30127081</v>
       </c>
       <c r="AF2" t="n">
         <v>1.800664382614975e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>111</v>
+        <v>110.9458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>11237242.24444556</v>
+        <v>11920399.09497415</v>
       </c>
     </row>
     <row r="3">
@@ -16551,28 +16551,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>5126.864462073324</v>
+        <v>5517.10555279321</v>
       </c>
       <c r="AB3" t="n">
-        <v>7014.802138306115</v>
+        <v>7548.747214850957</v>
       </c>
       <c r="AC3" t="n">
-        <v>6345.319267562551</v>
+        <v>6828.305375398554</v>
       </c>
       <c r="AD3" t="n">
-        <v>5126864.462073324</v>
+        <v>5517105.55279321</v>
       </c>
       <c r="AE3" t="n">
-        <v>7014802.138306115</v>
+        <v>7548747.214850957</v>
       </c>
       <c r="AF3" t="n">
         <v>2.507314888465475e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>80</v>
+        <v>79.66666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>6345319.26756255</v>
+        <v>6828305.375398554</v>
       </c>
     </row>
     <row r="4">
@@ -16657,28 +16657,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>4316.748790202618</v>
+        <v>4668.945078384462</v>
       </c>
       <c r="AB4" t="n">
-        <v>5906.366136271496</v>
+        <v>6388.256635565553</v>
       </c>
       <c r="AC4" t="n">
-        <v>5342.670841862457</v>
+        <v>5778.570388241435</v>
       </c>
       <c r="AD4" t="n">
-        <v>4316748.790202618</v>
+        <v>4668945.078384462</v>
       </c>
       <c r="AE4" t="n">
-        <v>5906366.136271495</v>
+        <v>6388256.635565553</v>
       </c>
       <c r="AF4" t="n">
         <v>2.754211096411884e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>73</v>
+        <v>72.52916666666665</v>
       </c>
       <c r="AH4" t="n">
-        <v>5342670.841862457</v>
+        <v>5778570.388241435</v>
       </c>
     </row>
     <row r="5">
@@ -16763,28 +16763,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3921.433872142133</v>
+        <v>4254.52335653786</v>
       </c>
       <c r="AB5" t="n">
-        <v>5365.478825317782</v>
+        <v>5821.226552738981</v>
       </c>
       <c r="AC5" t="n">
-        <v>4853.405056726077</v>
+        <v>5265.656860688134</v>
       </c>
       <c r="AD5" t="n">
-        <v>3921433.872142133</v>
+        <v>4254523.35653786</v>
       </c>
       <c r="AE5" t="n">
-        <v>5365478.825317782</v>
+        <v>5821226.552738981</v>
       </c>
       <c r="AF5" t="n">
         <v>2.882693006566519e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>70</v>
+        <v>69.29166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>4853405.056726078</v>
+        <v>5265656.860688134</v>
       </c>
     </row>
     <row r="6">
@@ -16869,28 +16869,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3657.990109932078</v>
+        <v>3991.011263490244</v>
       </c>
       <c r="AB6" t="n">
-        <v>5005.023447543436</v>
+        <v>5460.677681698141</v>
       </c>
       <c r="AC6" t="n">
-        <v>4527.35103430423</v>
+        <v>4939.518267865926</v>
       </c>
       <c r="AD6" t="n">
-        <v>3657990.109932078</v>
+        <v>3991011.263490244</v>
       </c>
       <c r="AE6" t="n">
-        <v>5005023.447543437</v>
+        <v>5460677.681698141</v>
       </c>
       <c r="AF6" t="n">
         <v>2.96083685490684e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>68</v>
+        <v>67.46249999999999</v>
       </c>
       <c r="AH6" t="n">
-        <v>4527351.03430423</v>
+        <v>4939518.267865926</v>
       </c>
     </row>
     <row r="7">
@@ -16975,28 +16975,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3498.674033976094</v>
+        <v>3822.311096190319</v>
       </c>
       <c r="AB7" t="n">
-        <v>4787.040163891225</v>
+        <v>5229.854670272259</v>
       </c>
       <c r="AC7" t="n">
-        <v>4330.171769302333</v>
+        <v>4730.724680688408</v>
       </c>
       <c r="AD7" t="n">
-        <v>3498674.033976094</v>
+        <v>3822311.096190319</v>
       </c>
       <c r="AE7" t="n">
-        <v>4787040.163891225</v>
+        <v>5229854.670272259</v>
       </c>
       <c r="AF7" t="n">
         <v>3.002066124583327e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>67</v>
+        <v>66.53333333333335</v>
       </c>
       <c r="AH7" t="n">
-        <v>4330171.769302333</v>
+        <v>4730724.680688407</v>
       </c>
     </row>
     <row r="8">
@@ -17081,28 +17081,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>3497.161313448508</v>
+        <v>3820.696890436248</v>
       </c>
       <c r="AB8" t="n">
-        <v>4784.970392928862</v>
+        <v>5227.646042745806</v>
       </c>
       <c r="AC8" t="n">
-        <v>4328.299534375676</v>
+        <v>4728.726841473251</v>
       </c>
       <c r="AD8" t="n">
-        <v>3497161.313448508</v>
+        <v>3820696.890436248</v>
       </c>
       <c r="AE8" t="n">
-        <v>4784970.392928862</v>
+        <v>5227646.042745806</v>
       </c>
       <c r="AF8" t="n">
         <v>3.0068602257085e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>67</v>
+        <v>66.43333333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>4328299.534375676</v>
+        <v>4728726.841473251</v>
       </c>
     </row>
   </sheetData>
@@ -17378,28 +17378,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6264.347373565797</v>
+        <v>6734.257380323015</v>
       </c>
       <c r="AB2" t="n">
-        <v>8571.156440014576</v>
+        <v>9214.10804222622</v>
       </c>
       <c r="AC2" t="n">
-        <v>7753.137299072881</v>
+        <v>8334.72650275766</v>
       </c>
       <c r="AD2" t="n">
-        <v>6264347.373565797</v>
+        <v>6734257.380323015</v>
       </c>
       <c r="AE2" t="n">
-        <v>8571156.440014577</v>
+        <v>9214108.04222622</v>
       </c>
       <c r="AF2" t="n">
         <v>2.366921714638416e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>96</v>
+        <v>95.96249999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>7753137.29907288</v>
+        <v>8334726.50275766</v>
       </c>
     </row>
     <row r="3">
@@ -17484,28 +17484,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4004.09276836704</v>
+        <v>4370.626673487924</v>
       </c>
       <c r="AB3" t="n">
-        <v>5478.57637378584</v>
+        <v>5980.084233106911</v>
       </c>
       <c r="AC3" t="n">
-        <v>4955.708733901746</v>
+        <v>5409.353386999896</v>
       </c>
       <c r="AD3" t="n">
-        <v>4004092.76836704</v>
+        <v>4370626.673487924</v>
       </c>
       <c r="AE3" t="n">
-        <v>5478576.373785839</v>
+        <v>5980084.23310691</v>
       </c>
       <c r="AF3" t="n">
         <v>3.039602828379504e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>75</v>
+        <v>74.72500000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>4955708.733901747</v>
+        <v>5409353.386999896</v>
       </c>
     </row>
     <row r="4">
@@ -17590,28 +17590,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3420.334295375037</v>
+        <v>3758.598080582276</v>
       </c>
       <c r="AB4" t="n">
-        <v>4679.852277431906</v>
+        <v>5142.679711497458</v>
       </c>
       <c r="AC4" t="n">
-        <v>4233.213744287552</v>
+        <v>4651.869577628252</v>
       </c>
       <c r="AD4" t="n">
-        <v>3420334.295375037</v>
+        <v>3758598.080582276</v>
       </c>
       <c r="AE4" t="n">
-        <v>4679852.277431906</v>
+        <v>5142679.711497458</v>
       </c>
       <c r="AF4" t="n">
         <v>3.27455060797627e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>70</v>
+        <v>69.36666666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>4233213.744287552</v>
+        <v>4651869.577628252</v>
       </c>
     </row>
     <row r="5">
@@ -17696,28 +17696,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3192.535006603911</v>
+        <v>3521.499343668988</v>
       </c>
       <c r="AB5" t="n">
-        <v>4368.167240739891</v>
+        <v>4818.270759594639</v>
       </c>
       <c r="AC5" t="n">
-        <v>3951.275490044738</v>
+        <v>4358.421760784228</v>
       </c>
       <c r="AD5" t="n">
-        <v>3192535.006603911</v>
+        <v>3521499.343668988</v>
       </c>
       <c r="AE5" t="n">
-        <v>4368167.240739891</v>
+        <v>4818270.75959464</v>
       </c>
       <c r="AF5" t="n">
         <v>3.359589711496213e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>68</v>
+        <v>67.60833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>3951275.490044738</v>
+        <v>4358421.760784228</v>
       </c>
     </row>
     <row r="6">
@@ -17802,28 +17802,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3204.771745395048</v>
+        <v>3533.736082460124</v>
       </c>
       <c r="AB6" t="n">
-        <v>4384.91008660074</v>
+        <v>4835.013605455488</v>
       </c>
       <c r="AC6" t="n">
-        <v>3966.420422195359</v>
+        <v>4373.566692934849</v>
       </c>
       <c r="AD6" t="n">
-        <v>3204771.745395048</v>
+        <v>3533736.082460124</v>
       </c>
       <c r="AE6" t="n">
-        <v>4384910.08660074</v>
+        <v>4835013.605455488</v>
       </c>
       <c r="AF6" t="n">
         <v>3.360679956413136e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>68</v>
+        <v>67.57916666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>3966420.422195359</v>
+        <v>4373566.692934849</v>
       </c>
     </row>
   </sheetData>
@@ -32920,28 +32920,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4700.625584701136</v>
+        <v>5119.291622239148</v>
       </c>
       <c r="AB2" t="n">
-        <v>6431.603301953326</v>
+        <v>7004.440644754877</v>
       </c>
       <c r="AC2" t="n">
-        <v>5817.780109626586</v>
+        <v>6335.946660413397</v>
       </c>
       <c r="AD2" t="n">
-        <v>4700625.584701136</v>
+        <v>5119291.622239147</v>
       </c>
       <c r="AE2" t="n">
-        <v>6431603.301953326</v>
+        <v>7004440.644754877</v>
       </c>
       <c r="AF2" t="n">
         <v>2.934254595819778e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>87</v>
+        <v>86.925</v>
       </c>
       <c r="AH2" t="n">
-        <v>5817780.109626586</v>
+        <v>6335946.660413397</v>
       </c>
     </row>
     <row r="3">
@@ -33026,28 +33026,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3221.538073589976</v>
+        <v>3565.689051979065</v>
       </c>
       <c r="AB3" t="n">
-        <v>4407.850516515239</v>
+        <v>4878.733068016831</v>
       </c>
       <c r="AC3" t="n">
-        <v>3987.171449675913</v>
+        <v>4413.113631349986</v>
       </c>
       <c r="AD3" t="n">
-        <v>3221538.073589976</v>
+        <v>3565689.051979065</v>
       </c>
       <c r="AE3" t="n">
-        <v>4407850.516515239</v>
+        <v>4878733.068016831</v>
       </c>
       <c r="AF3" t="n">
         <v>3.577672409340868e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>72</v>
+        <v>71.29166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>3987171.449675913</v>
+        <v>4413113.631349986</v>
       </c>
     </row>
     <row r="4">
@@ -33132,28 +33132,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2989.746717685924</v>
+        <v>3315.354092077269</v>
       </c>
       <c r="AB4" t="n">
-        <v>4090.703357454383</v>
+        <v>4536.21373188019</v>
       </c>
       <c r="AC4" t="n">
-        <v>3700.292370357004</v>
+        <v>4103.283859925333</v>
       </c>
       <c r="AD4" t="n">
-        <v>2989746.717685923</v>
+        <v>3315354.092077269</v>
       </c>
       <c r="AE4" t="n">
-        <v>4090703.357454383</v>
+        <v>4536213.73188019</v>
       </c>
       <c r="AF4" t="n">
         <v>3.695826203831421e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>70</v>
+        <v>69.02499999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>3700292.370357004</v>
+        <v>4103283.859925332</v>
       </c>
     </row>
     <row r="5">
@@ -33238,28 +33238,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3007.991746904946</v>
+        <v>3333.599121296292</v>
       </c>
       <c r="AB5" t="n">
-        <v>4115.667011345732</v>
+        <v>4561.177385771539</v>
       </c>
       <c r="AC5" t="n">
-        <v>3722.87352815767</v>
+        <v>4125.865017725999</v>
       </c>
       <c r="AD5" t="n">
-        <v>3007991.746904946</v>
+        <v>3333599.121296292</v>
       </c>
       <c r="AE5" t="n">
-        <v>4115667.011345732</v>
+        <v>4561177.385771539</v>
       </c>
       <c r="AF5" t="n">
         <v>3.695826203831421e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>70</v>
+        <v>69.02499999999999</v>
       </c>
       <c r="AH5" t="n">
-        <v>3722873.52815767</v>
+        <v>4125865.017725999</v>
       </c>
     </row>
   </sheetData>
@@ -33535,28 +33535,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2650.281380418577</v>
+        <v>2996.653082375272</v>
       </c>
       <c r="AB2" t="n">
-        <v>3626.231906851456</v>
+        <v>4100.152950309656</v>
       </c>
       <c r="AC2" t="n">
-        <v>3280.149423109862</v>
+        <v>3708.840107332756</v>
       </c>
       <c r="AD2" t="n">
-        <v>2650281.380418577</v>
+        <v>2996653.082375272</v>
       </c>
       <c r="AE2" t="n">
-        <v>3626231.906851456</v>
+        <v>4100152.950309656</v>
       </c>
       <c r="AF2" t="n">
         <v>4.485656358440254e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>76</v>
+        <v>75.21666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3280149.423109862</v>
+        <v>3708840.107332756</v>
       </c>
     </row>
     <row r="3">
@@ -33641,28 +33641,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2648.975850324503</v>
+        <v>3004.46425670353</v>
       </c>
       <c r="AB3" t="n">
-        <v>3624.445622980823</v>
+        <v>4110.840543630271</v>
       </c>
       <c r="AC3" t="n">
-        <v>3278.533619664777</v>
+        <v>3718.507691746983</v>
       </c>
       <c r="AD3" t="n">
-        <v>2648975.850324504</v>
+        <v>3004464.25670353</v>
       </c>
       <c r="AE3" t="n">
-        <v>3624445.622980823</v>
+        <v>4110840.543630271</v>
       </c>
       <c r="AF3" t="n">
         <v>4.502659748968637e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>75</v>
+        <v>74.93333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>3278533.619664777</v>
+        <v>3718507.691746983</v>
       </c>
     </row>
   </sheetData>
@@ -33938,28 +33938,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>12851.28099025325</v>
+        <v>13495.6793210379</v>
       </c>
       <c r="AB2" t="n">
-        <v>17583.68960936887</v>
+        <v>18465.38383439642</v>
       </c>
       <c r="AC2" t="n">
-        <v>15905.52695191341</v>
+        <v>16703.07351756992</v>
       </c>
       <c r="AD2" t="n">
-        <v>12851280.99025325</v>
+        <v>13495679.3210379</v>
       </c>
       <c r="AE2" t="n">
-        <v>17583689.60936887</v>
+        <v>18465383.83439642</v>
       </c>
       <c r="AF2" t="n">
         <v>1.404956322446684e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>129</v>
+        <v>128.9875</v>
       </c>
       <c r="AH2" t="n">
-        <v>15905526.95191341</v>
+        <v>16703073.51756991</v>
       </c>
     </row>
     <row r="3">
@@ -34044,28 +34044,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>6298.081966695877</v>
+        <v>6721.278618897091</v>
       </c>
       <c r="AB3" t="n">
-        <v>8617.313598600369</v>
+        <v>9196.349928260726</v>
       </c>
       <c r="AC3" t="n">
-        <v>7794.88928322522</v>
+        <v>8318.663198265365</v>
       </c>
       <c r="AD3" t="n">
-        <v>6298081.966695877</v>
+        <v>6721278.618897092</v>
       </c>
       <c r="AE3" t="n">
-        <v>8617313.598600369</v>
+        <v>9196349.928260727</v>
       </c>
       <c r="AF3" t="n">
         <v>2.1348376565227e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>85</v>
+        <v>84.8875</v>
       </c>
       <c r="AH3" t="n">
-        <v>7794889.283225221</v>
+        <v>8318663.198265365</v>
       </c>
     </row>
     <row r="4">
@@ -34150,28 +34150,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>5166.55612069278</v>
+        <v>5541.684762351688</v>
       </c>
       <c r="AB4" t="n">
-        <v>7069.110016701649</v>
+        <v>7582.377573727063</v>
       </c>
       <c r="AC4" t="n">
-        <v>6394.444078265598</v>
+        <v>6858.72610002403</v>
       </c>
       <c r="AD4" t="n">
-        <v>5166556.120692779</v>
+        <v>5541684.762351688</v>
       </c>
       <c r="AE4" t="n">
-        <v>7069110.016701649</v>
+        <v>7582377.573727063</v>
       </c>
       <c r="AF4" t="n">
         <v>2.395385284121946e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>76</v>
+        <v>75.66250000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>6394444.078265598</v>
+        <v>6858726.10002403</v>
       </c>
     </row>
     <row r="5">
@@ -34256,28 +34256,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>4666.307326446567</v>
+        <v>5022.195097721042</v>
       </c>
       <c r="AB5" t="n">
-        <v>6384.647546994724</v>
+        <v>6871.58889631286</v>
       </c>
       <c r="AC5" t="n">
-        <v>5775.305746018418</v>
+        <v>6215.77409638409</v>
       </c>
       <c r="AD5" t="n">
-        <v>4666307.326446567</v>
+        <v>5022195.097721042</v>
       </c>
       <c r="AE5" t="n">
-        <v>6384647.546994723</v>
+        <v>6871588.89631286</v>
       </c>
       <c r="AF5" t="n">
         <v>2.531096235392337e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>72</v>
+        <v>71.60416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>5775305.746018418</v>
+        <v>6215774.096384089</v>
       </c>
     </row>
     <row r="6">
@@ -34362,28 +34362,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>4360.465681243179</v>
+        <v>4697.079427744295</v>
       </c>
       <c r="AB6" t="n">
-        <v>5966.18151524631</v>
+        <v>6426.751293559573</v>
       </c>
       <c r="AC6" t="n">
-        <v>5396.777525019324</v>
+        <v>5813.391170104096</v>
       </c>
       <c r="AD6" t="n">
-        <v>4360465.681243178</v>
+        <v>4697079.427744295</v>
       </c>
       <c r="AE6" t="n">
-        <v>5966181.515246309</v>
+        <v>6426751.293559574</v>
       </c>
       <c r="AF6" t="n">
         <v>2.615915579936333e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>70</v>
+        <v>69.27916666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>5396777.525019323</v>
+        <v>5813391.170104096</v>
       </c>
     </row>
     <row r="7">
@@ -34468,28 +34468,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>4135.81968082364</v>
+        <v>4472.466581713681</v>
       </c>
       <c r="AB7" t="n">
-        <v>5658.810946790201</v>
+        <v>6119.426088401061</v>
       </c>
       <c r="AC7" t="n">
-        <v>5118.741972219377</v>
+        <v>5535.396651192291</v>
       </c>
       <c r="AD7" t="n">
-        <v>4135819.68082364</v>
+        <v>4472466.581713681</v>
       </c>
       <c r="AE7" t="n">
-        <v>5658810.946790202</v>
+        <v>6119426.088401061</v>
       </c>
       <c r="AF7" t="n">
         <v>2.672896780629991e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>68</v>
+        <v>67.80833333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>5118741.972219377</v>
+        <v>5535396.651192291</v>
       </c>
     </row>
     <row r="8">
@@ -34574,28 +34574,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>3955.330109854295</v>
+        <v>4291.942845325556</v>
       </c>
       <c r="AB8" t="n">
-        <v>5411.857153152034</v>
+        <v>5872.425548129644</v>
       </c>
       <c r="AC8" t="n">
-        <v>4895.357102044219</v>
+        <v>5311.969495816949</v>
       </c>
       <c r="AD8" t="n">
-        <v>3955330.109854295</v>
+        <v>4291942.845325556</v>
       </c>
       <c r="AE8" t="n">
-        <v>5411857.153152034</v>
+        <v>5872425.548129644</v>
       </c>
       <c r="AF8" t="n">
         <v>2.714219025407834e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>67</v>
+        <v>66.77499999999999</v>
       </c>
       <c r="AH8" t="n">
-        <v>4895357.102044218</v>
+        <v>5311969.49581695</v>
       </c>
     </row>
     <row r="9">
@@ -34680,28 +34680,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>3809.781120441381</v>
+        <v>4136.7402663315</v>
       </c>
       <c r="AB9" t="n">
-        <v>5212.710604669042</v>
+        <v>5660.07053249542</v>
       </c>
       <c r="AC9" t="n">
-        <v>4715.216820644515</v>
+        <v>5119.881344832729</v>
       </c>
       <c r="AD9" t="n">
-        <v>3809781.12044138</v>
+        <v>4136740.266331499</v>
       </c>
       <c r="AE9" t="n">
-        <v>5212710.604669042</v>
+        <v>5660070.532495419</v>
       </c>
       <c r="AF9" t="n">
         <v>2.745101966241802e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>67</v>
+        <v>66.02083333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>4715216.820644515</v>
+        <v>5119881.34483273</v>
       </c>
     </row>
     <row r="10">
@@ -34786,28 +34786,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>3762.78137678289</v>
+        <v>4089.807842480714</v>
       </c>
       <c r="AB10" t="n">
-        <v>5148.403481913142</v>
+        <v>5595.855519670362</v>
       </c>
       <c r="AC10" t="n">
-        <v>4657.047079428827</v>
+        <v>5061.79492270536</v>
       </c>
       <c r="AD10" t="n">
-        <v>3762781.37678289</v>
+        <v>4089807.842480714</v>
       </c>
       <c r="AE10" t="n">
-        <v>5148403.481913142</v>
+        <v>5595855.519670362</v>
       </c>
       <c r="AF10" t="n">
         <v>2.753801386195032e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>66</v>
+        <v>65.8125</v>
       </c>
       <c r="AH10" t="n">
-        <v>4657047.079428826</v>
+        <v>5061794.92270536</v>
       </c>
     </row>
     <row r="11">
@@ -34892,28 +34892,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>3781.62322353502</v>
+        <v>4108.649689232843</v>
       </c>
       <c r="AB11" t="n">
-        <v>5174.183727883019</v>
+        <v>5621.635765640238</v>
       </c>
       <c r="AC11" t="n">
-        <v>4680.36689490614</v>
+        <v>5085.114738182673</v>
       </c>
       <c r="AD11" t="n">
-        <v>3781623.22353502</v>
+        <v>4108649.689232843</v>
       </c>
       <c r="AE11" t="n">
-        <v>5174183.727883019</v>
+        <v>5621635.765640238</v>
       </c>
       <c r="AF11" t="n">
         <v>2.753801386195032e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>66</v>
+        <v>65.8125</v>
       </c>
       <c r="AH11" t="n">
-        <v>4680366.89490614</v>
+        <v>5085114.738182673</v>
       </c>
     </row>
   </sheetData>
@@ -35189,28 +35189,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>20587.22699245552</v>
+        <v>21395.17145517729</v>
       </c>
       <c r="AB2" t="n">
-        <v>28168.35221543368</v>
+        <v>29273.81747332375</v>
       </c>
       <c r="AC2" t="n">
-        <v>25480.00421452213</v>
+        <v>26479.96541972936</v>
       </c>
       <c r="AD2" t="n">
-        <v>20587226.99245552</v>
+        <v>21395171.45517729</v>
       </c>
       <c r="AE2" t="n">
-        <v>28168352.21543368</v>
+        <v>29273817.47332375</v>
       </c>
       <c r="AF2" t="n">
         <v>1.017969291962652e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>161</v>
+        <v>160.8958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>25480004.21452213</v>
+        <v>26479965.41972936</v>
       </c>
     </row>
     <row r="3">
@@ -35295,28 +35295,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>8036.538401142033</v>
+        <v>8503.678201721281</v>
       </c>
       <c r="AB3" t="n">
-        <v>10995.94638749474</v>
+        <v>11635.10767140081</v>
       </c>
       <c r="AC3" t="n">
-        <v>9946.508697179512</v>
+        <v>10524.66932521806</v>
       </c>
       <c r="AD3" t="n">
-        <v>8036538.401142033</v>
+        <v>8503678.201721281</v>
       </c>
       <c r="AE3" t="n">
-        <v>10995946.38749474</v>
+        <v>11635107.67140081</v>
       </c>
       <c r="AF3" t="n">
         <v>1.77063770667635e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>93</v>
+        <v>92.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>9946508.697179511</v>
+        <v>10524669.32521806</v>
       </c>
     </row>
     <row r="4">
@@ -35401,28 +35401,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>6341.118706725816</v>
+        <v>6740.172536591908</v>
       </c>
       <c r="AB4" t="n">
-        <v>8676.198364956304</v>
+        <v>9222.201419991596</v>
       </c>
       <c r="AC4" t="n">
-        <v>7848.154170125433</v>
+        <v>8342.047459908235</v>
       </c>
       <c r="AD4" t="n">
-        <v>6341118.706725816</v>
+        <v>6740172.536591908</v>
       </c>
       <c r="AE4" t="n">
-        <v>8676198.364956304</v>
+        <v>9222201.419991596</v>
       </c>
       <c r="AF4" t="n">
         <v>2.044978465668601e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>81</v>
+        <v>80.075</v>
       </c>
       <c r="AH4" t="n">
-        <v>7848154.170125432</v>
+        <v>8342047.459908236</v>
       </c>
     </row>
     <row r="5">
@@ -35507,28 +35507,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>5627.051910803153</v>
+        <v>6006.666237472248</v>
       </c>
       <c r="AB5" t="n">
-        <v>7699.180672371153</v>
+        <v>8218.58574152196</v>
       </c>
       <c r="AC5" t="n">
-        <v>6964.381674867701</v>
+        <v>7434.215453208326</v>
       </c>
       <c r="AD5" t="n">
-        <v>5627051.910803153</v>
+        <v>6006666.237472248</v>
       </c>
       <c r="AE5" t="n">
-        <v>7699180.672371154</v>
+        <v>8218585.74152196</v>
       </c>
       <c r="AF5" t="n">
         <v>2.192367841918019e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>75</v>
+        <v>74.7</v>
       </c>
       <c r="AH5" t="n">
-        <v>6964381.674867701</v>
+        <v>7434215.453208326</v>
       </c>
     </row>
     <row r="6">
@@ -35613,28 +35613,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>5236.194292892914</v>
+        <v>5596.37012739487</v>
       </c>
       <c r="AB6" t="n">
-        <v>7164.392036125211</v>
+        <v>7657.200502727185</v>
       </c>
       <c r="AC6" t="n">
-        <v>6480.632515484526</v>
+        <v>6926.408033695016</v>
       </c>
       <c r="AD6" t="n">
-        <v>5236194.292892914</v>
+        <v>5596370.12739487</v>
       </c>
       <c r="AE6" t="n">
-        <v>7164392.036125211</v>
+        <v>7657200.502727185</v>
       </c>
       <c r="AF6" t="n">
         <v>2.281980582677666e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>72</v>
+        <v>71.7625</v>
       </c>
       <c r="AH6" t="n">
-        <v>6480632.515484526</v>
+        <v>6926408.033695016</v>
       </c>
     </row>
     <row r="7">
@@ -35719,28 +35719,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>4970.422396551048</v>
+        <v>5320.861902260044</v>
       </c>
       <c r="AB7" t="n">
-        <v>6800.751202521695</v>
+        <v>7280.23799453263</v>
       </c>
       <c r="AC7" t="n">
-        <v>6151.697052667027</v>
+        <v>6585.42229821236</v>
       </c>
       <c r="AD7" t="n">
-        <v>4970422.396551048</v>
+        <v>5320861.902260045</v>
       </c>
       <c r="AE7" t="n">
-        <v>6800751.202521695</v>
+        <v>7280237.99453263</v>
       </c>
       <c r="AF7" t="n">
         <v>2.344080639870755e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>70</v>
+        <v>69.87083333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>6151697.052667027</v>
+        <v>6585422.298212361</v>
       </c>
     </row>
     <row r="8">
@@ -35825,28 +35825,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>4776.726971010849</v>
+        <v>5117.464313345666</v>
       </c>
       <c r="AB8" t="n">
-        <v>6535.728576058495</v>
+        <v>7001.940440111639</v>
       </c>
       <c r="AC8" t="n">
-        <v>5911.967813711894</v>
+        <v>6333.685071792249</v>
       </c>
       <c r="AD8" t="n">
-        <v>4776726.971010849</v>
+        <v>5117464.313345666</v>
       </c>
       <c r="AE8" t="n">
-        <v>6535728.576058496</v>
+        <v>7001940.440111639</v>
       </c>
       <c r="AF8" t="n">
         <v>2.387707895240583e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>69</v>
+        <v>68.58333333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>5911967.813711895</v>
+        <v>6333685.071792249</v>
       </c>
     </row>
     <row r="9">
@@ -35931,28 +35931,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>4623.330991645578</v>
+        <v>4964.034168561615</v>
       </c>
       <c r="AB9" t="n">
-        <v>6325.845429737928</v>
+        <v>6792.010547157823</v>
       </c>
       <c r="AC9" t="n">
-        <v>5722.115620303324</v>
+        <v>6143.790593183498</v>
       </c>
       <c r="AD9" t="n">
-        <v>4623330.991645578</v>
+        <v>4964034.168561615</v>
       </c>
       <c r="AE9" t="n">
-        <v>6325845.429737927</v>
+        <v>6792010.547157823</v>
       </c>
       <c r="AF9" t="n">
         <v>2.421116153857117e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>68</v>
+        <v>67.64166666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>5722115.620303324</v>
+        <v>6143790.593183499</v>
       </c>
     </row>
     <row r="10">
@@ -36037,28 +36037,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>4484.393576622712</v>
+        <v>4825.062588119968</v>
       </c>
       <c r="AB10" t="n">
-        <v>6135.745129017477</v>
+        <v>6601.863499804125</v>
       </c>
       <c r="AC10" t="n">
-        <v>5550.158225476192</v>
+        <v>5971.790913156186</v>
       </c>
       <c r="AD10" t="n">
-        <v>4484393.576622712</v>
+        <v>4825062.588119968</v>
       </c>
       <c r="AE10" t="n">
-        <v>6135745.129017477</v>
+        <v>6601863.499804125</v>
       </c>
       <c r="AF10" t="n">
         <v>2.44823579908701e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>67</v>
+        <v>66.89166666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>5550158.225476192</v>
+        <v>5971790.913156186</v>
       </c>
     </row>
     <row r="11">
@@ -36143,28 +36143,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>4362.881136807895</v>
+        <v>4693.780665123268</v>
       </c>
       <c r="AB11" t="n">
-        <v>5969.486448112335</v>
+        <v>6422.237781010349</v>
       </c>
       <c r="AC11" t="n">
-        <v>5399.767039731118</v>
+        <v>5809.308420857815</v>
       </c>
       <c r="AD11" t="n">
-        <v>4362881.136807895</v>
+        <v>4693780.665123268</v>
       </c>
       <c r="AE11" t="n">
-        <v>5969486.448112335</v>
+        <v>6422237.781010349</v>
       </c>
       <c r="AF11" t="n">
         <v>2.471425060950252e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>67</v>
+        <v>66.2625</v>
       </c>
       <c r="AH11" t="n">
-        <v>5399767.039731118</v>
+        <v>5809308.420857815</v>
       </c>
     </row>
     <row r="12">
@@ -36249,28 +36249,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>4245.666968770037</v>
+        <v>4576.633816893112</v>
       </c>
       <c r="AB12" t="n">
-        <v>5809.10885227879</v>
+        <v>6261.952295107646</v>
       </c>
       <c r="AC12" t="n">
-        <v>5254.695656552565</v>
+        <v>5664.32035676758</v>
       </c>
       <c r="AD12" t="n">
-        <v>4245666.968770036</v>
+        <v>4576633.816893112</v>
       </c>
       <c r="AE12" t="n">
-        <v>5809108.85227879</v>
+        <v>6261952.295107646</v>
       </c>
       <c r="AF12" t="n">
         <v>2.489111786100183e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>66</v>
+        <v>65.78749999999999</v>
       </c>
       <c r="AH12" t="n">
-        <v>5254695.656552565</v>
+        <v>5664320.35676758</v>
       </c>
     </row>
     <row r="13">
@@ -36355,28 +36355,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>4158.088580148572</v>
+        <v>4488.953943045162</v>
       </c>
       <c r="AB13" t="n">
-        <v>5689.280237281076</v>
+        <v>6141.984823545842</v>
       </c>
       <c r="AC13" t="n">
-        <v>5146.30331638972</v>
+        <v>5555.802412316235</v>
       </c>
       <c r="AD13" t="n">
-        <v>4158088.580148572</v>
+        <v>4488953.943045163</v>
       </c>
       <c r="AE13" t="n">
-        <v>5689280.237281076</v>
+        <v>6141984.823545842</v>
       </c>
       <c r="AF13" t="n">
         <v>2.502475089546797e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>66</v>
+        <v>65.4375</v>
       </c>
       <c r="AH13" t="n">
-        <v>5146303.31638972</v>
+        <v>5555802.412316235</v>
       </c>
     </row>
     <row r="14">
@@ -36461,28 +36461,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>4142.39331659668</v>
+        <v>4473.25867949327</v>
       </c>
       <c r="AB14" t="n">
-        <v>5667.805285263217</v>
+        <v>6120.509871527984</v>
       </c>
       <c r="AC14" t="n">
-        <v>5126.877903652162</v>
+        <v>5536.376999578679</v>
       </c>
       <c r="AD14" t="n">
-        <v>4142393.31659668</v>
+        <v>4473258.679493271</v>
       </c>
       <c r="AE14" t="n">
-        <v>5667805.285263217</v>
+        <v>6120509.871527984</v>
       </c>
       <c r="AF14" t="n">
         <v>2.505619396240117e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>66</v>
+        <v>65.3625</v>
       </c>
       <c r="AH14" t="n">
-        <v>5126877.903652162</v>
+        <v>5536376.999578679</v>
       </c>
     </row>
     <row r="15">
@@ -36567,28 +36567,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>4149.815114967109</v>
+        <v>4471.012479908302</v>
       </c>
       <c r="AB15" t="n">
-        <v>5677.960117220275</v>
+        <v>6117.436522160498</v>
       </c>
       <c r="AC15" t="n">
-        <v>5136.063572699634</v>
+        <v>5533.596966361351</v>
       </c>
       <c r="AD15" t="n">
-        <v>4149815.11496711</v>
+        <v>4471012.479908302</v>
       </c>
       <c r="AE15" t="n">
-        <v>5677960.117220275</v>
+        <v>6117436.522160497</v>
       </c>
       <c r="AF15" t="n">
         <v>2.507191549586778e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>66</v>
+        <v>65.32083333333334</v>
       </c>
       <c r="AH15" t="n">
-        <v>5136063.572699634</v>
+        <v>5533596.966361351</v>
       </c>
     </row>
   </sheetData>
@@ -36864,28 +36864,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2526.716845294146</v>
+        <v>2905.79314225506</v>
       </c>
       <c r="AB2" t="n">
-        <v>3457.165458611642</v>
+        <v>3975.83437177952</v>
       </c>
       <c r="AC2" t="n">
-        <v>3127.218439403813</v>
+        <v>3596.386319455319</v>
       </c>
       <c r="AD2" t="n">
-        <v>2526716.845294146</v>
+        <v>2905793.142255059</v>
       </c>
       <c r="AE2" t="n">
-        <v>3457165.458611642</v>
+        <v>3975834.37177952</v>
       </c>
       <c r="AF2" t="n">
         <v>4.881248809693438e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>82</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>3127218.439403813</v>
+        <v>3596386.319455319</v>
       </c>
     </row>
   </sheetData>
@@ -37161,28 +37161,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7124.58073154596</v>
+        <v>7615.519844036373</v>
       </c>
       <c r="AB2" t="n">
-        <v>9748.165671220424</v>
+        <v>10419.89022363489</v>
       </c>
       <c r="AC2" t="n">
-        <v>8817.814421195228</v>
+        <v>9425.430525098567</v>
       </c>
       <c r="AD2" t="n">
-        <v>7124580.73154596</v>
+        <v>7615519.844036373</v>
       </c>
       <c r="AE2" t="n">
-        <v>9748165.671220424</v>
+        <v>10419890.22363489</v>
       </c>
       <c r="AF2" t="n">
         <v>2.151573616062515e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>101</v>
+        <v>100.675</v>
       </c>
       <c r="AH2" t="n">
-        <v>8817814.421195228</v>
+        <v>9425430.525098568</v>
       </c>
     </row>
     <row r="3">
@@ -37267,28 +37267,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4382.869789758277</v>
+        <v>4751.015345673079</v>
       </c>
       <c r="AB3" t="n">
-        <v>5996.835804916179</v>
+        <v>6500.548795954503</v>
       </c>
       <c r="AC3" t="n">
-        <v>5424.506212306665</v>
+        <v>5880.145542445896</v>
       </c>
       <c r="AD3" t="n">
-        <v>4382869.789758277</v>
+        <v>4751015.345673079</v>
       </c>
       <c r="AE3" t="n">
-        <v>5996835.804916179</v>
+        <v>6500548.795954502</v>
       </c>
       <c r="AF3" t="n">
         <v>2.836188849779435e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>77</v>
+        <v>76.3625</v>
       </c>
       <c r="AH3" t="n">
-        <v>5424506.212306665</v>
+        <v>5880145.542445896</v>
       </c>
     </row>
     <row r="4">
@@ -37373,28 +37373,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3732.936558569017</v>
+        <v>4072.752790902274</v>
       </c>
       <c r="AB4" t="n">
-        <v>5107.568484972462</v>
+        <v>5572.520045684965</v>
       </c>
       <c r="AC4" t="n">
-        <v>4620.109317283888</v>
+        <v>5040.686553605588</v>
       </c>
       <c r="AD4" t="n">
-        <v>3732936.558569016</v>
+        <v>4072752.790902274</v>
       </c>
       <c r="AE4" t="n">
-        <v>5107568.484972462</v>
+        <v>5572520.045684965</v>
       </c>
       <c r="AF4" t="n">
         <v>3.074790514377815e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>71</v>
+        <v>70.44583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>4620109.317283888</v>
+        <v>5040686.553605587</v>
       </c>
     </row>
     <row r="5">
@@ -37479,28 +37479,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3380.328394562738</v>
+        <v>3710.768838843186</v>
       </c>
       <c r="AB5" t="n">
-        <v>4625.114439004733</v>
+        <v>5077.237632872805</v>
       </c>
       <c r="AC5" t="n">
-        <v>4183.700008334832</v>
+        <v>4592.673199139006</v>
       </c>
       <c r="AD5" t="n">
-        <v>3380328.394562738</v>
+        <v>3710768.838843185</v>
       </c>
       <c r="AE5" t="n">
-        <v>4625114.439004733</v>
+        <v>5077237.632872805</v>
       </c>
       <c r="AF5" t="n">
         <v>3.196950408017508e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>68</v>
+        <v>67.74583333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>4183700.008334832</v>
+        <v>4592673.199139006</v>
       </c>
     </row>
     <row r="6">
@@ -37585,28 +37585,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3297.559125823093</v>
+        <v>3618.523307854102</v>
       </c>
       <c r="AB6" t="n">
-        <v>4511.86587399272</v>
+        <v>4951.023227787925</v>
       </c>
       <c r="AC6" t="n">
-        <v>4081.25972742221</v>
+        <v>4478.504519732402</v>
       </c>
       <c r="AD6" t="n">
-        <v>3297559.125823094</v>
+        <v>3618523.307854102</v>
       </c>
       <c r="AE6" t="n">
-        <v>4511865.873992721</v>
+        <v>4951023.227787925</v>
       </c>
       <c r="AF6" t="n">
         <v>3.227620338761091e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>68</v>
+        <v>67.10416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>4081259.72742221</v>
+        <v>4478504.519732402</v>
       </c>
     </row>
     <row r="7">
@@ -37691,28 +37691,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3315.261286911961</v>
+        <v>3636.22546894297</v>
       </c>
       <c r="AB7" t="n">
-        <v>4536.08675175874</v>
+        <v>4975.244105553945</v>
       </c>
       <c r="AC7" t="n">
-        <v>4103.168998608456</v>
+        <v>4500.413790918647</v>
       </c>
       <c r="AD7" t="n">
-        <v>3315261.286911961</v>
+        <v>3636225.46894297</v>
       </c>
       <c r="AE7" t="n">
-        <v>4536086.75175874</v>
+        <v>4975244.105553945</v>
       </c>
       <c r="AF7" t="n">
         <v>3.228140168095728e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>68</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="AH7" t="n">
-        <v>4103168.998608456</v>
+        <v>4500413.790918646</v>
       </c>
     </row>
   </sheetData>
@@ -37988,28 +37988,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>10215.58822164223</v>
+        <v>10788.78260233322</v>
       </c>
       <c r="AB2" t="n">
-        <v>13977.41848479664</v>
+        <v>14761.68832400947</v>
       </c>
       <c r="AC2" t="n">
-        <v>12643.43328203718</v>
+        <v>13352.85350852514</v>
       </c>
       <c r="AD2" t="n">
-        <v>10215588.22164223</v>
+        <v>10788782.60233322</v>
       </c>
       <c r="AE2" t="n">
-        <v>13977418.48479665</v>
+        <v>14761688.32400947</v>
       </c>
       <c r="AF2" t="n">
         <v>1.654318179180935e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>117</v>
+        <v>116.5875</v>
       </c>
       <c r="AH2" t="n">
-        <v>12643433.28203718</v>
+        <v>13352853.50852513</v>
       </c>
     </row>
     <row r="3">
@@ -38094,28 +38094,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>5512.578235211932</v>
+        <v>5913.716233011019</v>
       </c>
       <c r="AB3" t="n">
-        <v>7542.552739205097</v>
+        <v>8091.40744475331</v>
       </c>
       <c r="AC3" t="n">
-        <v>6822.702091814333</v>
+        <v>7319.174874587422</v>
       </c>
       <c r="AD3" t="n">
-        <v>5512578.235211932</v>
+        <v>5913716.233011018</v>
       </c>
       <c r="AE3" t="n">
-        <v>7542552.739205097</v>
+        <v>8091407.444753311</v>
       </c>
       <c r="AF3" t="n">
         <v>2.369924196252487e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>82</v>
+        <v>81.375</v>
       </c>
       <c r="AH3" t="n">
-        <v>6822702.091814334</v>
+        <v>7319174.874587422</v>
       </c>
     </row>
     <row r="4">
@@ -38200,28 +38200,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>4598.368244200659</v>
+        <v>4961.387935429741</v>
       </c>
       <c r="AB4" t="n">
-        <v>6291.690297405093</v>
+        <v>6788.389854243225</v>
       </c>
       <c r="AC4" t="n">
-        <v>5691.220205863307</v>
+        <v>6140.515454118996</v>
       </c>
       <c r="AD4" t="n">
-        <v>4598368.244200659</v>
+        <v>4961387.935429741</v>
       </c>
       <c r="AE4" t="n">
-        <v>6291690.297405093</v>
+        <v>6788389.854243225</v>
       </c>
       <c r="AF4" t="n">
         <v>2.622654393743475e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>74</v>
+        <v>73.53750000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>5691220.205863307</v>
+        <v>6140515.454118996</v>
       </c>
     </row>
     <row r="5">
@@ -38306,28 +38306,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>4176.655876165148</v>
+        <v>4520.498351688281</v>
       </c>
       <c r="AB5" t="n">
-        <v>5714.684830822246</v>
+        <v>6185.145275092451</v>
       </c>
       <c r="AC5" t="n">
-        <v>5169.283331178889</v>
+        <v>5594.843690943309</v>
       </c>
       <c r="AD5" t="n">
-        <v>4176655.876165148</v>
+        <v>4520498.351688282</v>
       </c>
       <c r="AE5" t="n">
-        <v>5714684.830822246</v>
+        <v>6185145.275092451</v>
       </c>
       <c r="AF5" t="n">
         <v>2.752722499045613e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>71</v>
+        <v>70.05833333333332</v>
       </c>
       <c r="AH5" t="n">
-        <v>5169283.331178889</v>
+        <v>5594843.690943308</v>
       </c>
     </row>
     <row r="6">
@@ -38412,28 +38412,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3897.218395698589</v>
+        <v>4231.505923272601</v>
       </c>
       <c r="AB6" t="n">
-        <v>5332.346142136301</v>
+        <v>5789.733085087963</v>
       </c>
       <c r="AC6" t="n">
-        <v>4823.434510325425</v>
+        <v>5237.16908538837</v>
       </c>
       <c r="AD6" t="n">
-        <v>3897218.395698589</v>
+        <v>4231505.9232726</v>
       </c>
       <c r="AE6" t="n">
-        <v>5332346.142136301</v>
+        <v>5789733.085087962</v>
       </c>
       <c r="AF6" t="n">
         <v>2.834651519111374e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>69</v>
+        <v>68.03333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>4823434.510325424</v>
+        <v>5237169.08538837</v>
       </c>
     </row>
     <row r="7">
@@ -38518,28 +38518,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3681.08448716299</v>
+        <v>4015.405169125924</v>
       </c>
       <c r="AB7" t="n">
-        <v>5036.622193322789</v>
+        <v>5494.054499572045</v>
       </c>
       <c r="AC7" t="n">
-        <v>4555.934040135517</v>
+        <v>4969.709649086602</v>
       </c>
       <c r="AD7" t="n">
-        <v>3681084.48716299</v>
+        <v>4015405.169125924</v>
       </c>
       <c r="AE7" t="n">
-        <v>5036622.193322789</v>
+        <v>5494054.499572045</v>
       </c>
       <c r="AF7" t="n">
         <v>2.888345114182718e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>67</v>
+        <v>66.76666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>4555934.040135517</v>
+        <v>4969709.649086601</v>
       </c>
     </row>
     <row r="8">
@@ -38624,28 +38624,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>3585.858847047002</v>
+        <v>3910.591426671891</v>
       </c>
       <c r="AB8" t="n">
-        <v>4906.330271457343</v>
+        <v>5350.643713090461</v>
       </c>
       <c r="AC8" t="n">
-        <v>4438.076996427053</v>
+        <v>4839.985786788522</v>
       </c>
       <c r="AD8" t="n">
-        <v>3585858.847047002</v>
+        <v>3910591.426671891</v>
       </c>
       <c r="AE8" t="n">
-        <v>4906330.271457342</v>
+        <v>5350643.713090462</v>
       </c>
       <c r="AF8" t="n">
         <v>2.911951780981327e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>67</v>
+        <v>66.23333333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>4438076.996427053</v>
+        <v>4839985.786788522</v>
       </c>
     </row>
     <row r="9">
@@ -38730,28 +38730,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>3593.352240243795</v>
+        <v>3918.084819868684</v>
       </c>
       <c r="AB9" t="n">
-        <v>4916.583062614371</v>
+        <v>5360.89650424749</v>
       </c>
       <c r="AC9" t="n">
-        <v>4447.351275585936</v>
+        <v>4849.260065947406</v>
       </c>
       <c r="AD9" t="n">
-        <v>3593352.240243795</v>
+        <v>3918084.819868684</v>
       </c>
       <c r="AE9" t="n">
-        <v>4916583.062614371</v>
+        <v>5360896.50424749</v>
       </c>
       <c r="AF9" t="n">
         <v>2.91426616007923e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>67</v>
+        <v>66.175</v>
       </c>
       <c r="AH9" t="n">
-        <v>4447351.275585936</v>
+        <v>4849260.065947406</v>
       </c>
     </row>
   </sheetData>
